--- a/Excels/vietstar.xlsx
+++ b/Excels/vietstar.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\Pricing\BangGia\2022-01-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z\Excel\pricing\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A047A-40DD-403B-9871-A755F7631B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1562CACA-94C4-4B1D-A0AB-0A30F78EFCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6765" yWindow="1965" windowWidth="22575" windowHeight="18705" xr2:uid="{97E121FF-B791-44B1-A20F-DD4175D749E8}"/>
+    <workbookView xWindow="0" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vietstar Calculator" sheetId="1" r:id="rId1"/>
-    <sheet name="HY" sheetId="3" r:id="rId2"/>
-    <sheet name="HCM" sheetId="6" r:id="rId3"/>
+    <sheet name="HY" sheetId="2" r:id="rId2"/>
+    <sheet name="HCM" sheetId="3" r:id="rId3"/>
     <sheet name="Province Master Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <webPublishing codePage="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,29 +36,19 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Anh. Le Duc - CTS SMB</author>
+    <author>PC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B40B06E7-772F-4D28-8F03-C3E444C1F37F}">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Trong DB cần lưu danh sách Tỉnh và mã vùng như sheet</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Province Master Data</t>
+          <t>Trong DB cần lưu danh sách Tỉnh và mã vùng như sheet Province Master Data</t>
         </r>
       </text>
     </comment>
@@ -68,514 +57,520 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="168">
+  <si>
+    <t>Tuyên Quang</t>
+  </si>
+  <si>
+    <t>TP Lạng Sơn</t>
+  </si>
+  <si>
+    <t>TP Huế</t>
+  </si>
+  <si>
+    <t>Sóc Trăng</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>TP Điện Biên Phủ</t>
+  </si>
+  <si>
+    <t>TP Phan Thiết</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>Bình Định</t>
+  </si>
+  <si>
+    <t>TP Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Mã Vùng (HY)</t>
+  </si>
+  <si>
+    <t>HCM ĐI CÁC TỈNH</t>
+  </si>
+  <si>
+    <t>TP Mỹ Tho</t>
+  </si>
+  <si>
+    <t>Cà Mau</t>
+  </si>
+  <si>
+    <t>Bắc Kạn</t>
+  </si>
+  <si>
+    <t>Vĩnh Long</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>TP Đà Nẵng</t>
+  </si>
+  <si>
+    <t>TP Bắc Kạn</t>
+  </si>
+  <si>
+    <t>TP Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Mã bưu chính</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>61-62</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>TP Yên Bái</t>
+  </si>
+  <si>
+    <t>TP Thanh Hóa</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Kon Tum</t>
+  </si>
+  <si>
+    <t>Bà Rịa – Vũng Tàu</t>
+  </si>
+  <si>
+    <t>Vùng</t>
+  </si>
+  <si>
+    <t>82-83</t>
+  </si>
+  <si>
+    <t>Cao Bằng</t>
+  </si>
+  <si>
+    <t>Trả hàng ngoại thành</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Hậu Giang</t>
+  </si>
+  <si>
+    <t>Đồng Nai</t>
+  </si>
+  <si>
+    <t>Khánh Hòa</t>
+  </si>
+  <si>
+    <t>Hà Nam</t>
+  </si>
+  <si>
+    <t>Kiên Giang</t>
+  </si>
+  <si>
+    <t>TP Tân An</t>
+  </si>
+  <si>
+    <t>Tây Ninh</t>
+  </si>
+  <si>
+    <t>TP Trà Vinh</t>
+  </si>
+  <si>
+    <t>Phú Thọ</t>
+  </si>
+  <si>
+    <t>Tổng chí phí VC</t>
+  </si>
+  <si>
+    <t>Đắk Nông</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Mã Vùng</t>
+  </si>
+  <si>
+    <t>Sơn La</t>
+  </si>
+  <si>
+    <t>TP Cà Mau</t>
+  </si>
+  <si>
+    <t>TP Hưng Yên</t>
+  </si>
+  <si>
+    <t>Formular HY</t>
+  </si>
+  <si>
+    <t>Yên Bái</t>
+  </si>
+  <si>
+    <t>TP Cao Bằng</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>TP Pleiku</t>
+  </si>
+  <si>
+    <t>TP Gia Nghĩa</t>
+  </si>
+  <si>
+    <t>Lạng Sơn</t>
+  </si>
+  <si>
+    <t>TP Long Xuyên</t>
+  </si>
+  <si>
+    <t>TP Phan Rang–Tháp Chàm</t>
+  </si>
+  <si>
+    <t>Next 0.5 kg</t>
+  </si>
+  <si>
+    <t>Khu vực trả hàng</t>
+  </si>
+  <si>
+    <t>TP Ninh Bình</t>
+  </si>
+  <si>
+    <t>TP Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>63-64</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Lào Cai</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Mã Vùng (HCM)</t>
+  </si>
+  <si>
+    <t>Lai Châu</t>
+  </si>
+  <si>
+    <t>TP Bà Rịa</t>
+  </si>
+  <si>
+    <t>TP Buôn Ma Thuột</t>
+  </si>
+  <si>
+    <t>Thành phố</t>
+  </si>
+  <si>
+    <t>Formular HCM</t>
+  </si>
+  <si>
+    <t>TP Lào Cai</t>
+  </si>
+  <si>
+    <t>TP Sơn La</t>
+  </si>
+  <si>
+    <t>Đồng Tháp</t>
+  </si>
+  <si>
+    <t>Phú Yên</t>
+  </si>
+  <si>
+    <t>Bến Tre</t>
+  </si>
+  <si>
+    <t>TP Việt Trì</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>TP Đông Hà</t>
+  </si>
+  <si>
+    <t>Gia Lai</t>
+  </si>
+  <si>
+    <t>TP Cần Thơ</t>
+  </si>
+  <si>
+    <t>Thái Nguyên</t>
+  </si>
+  <si>
+    <t>TP Rạch Giá</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>TP Bến Tre</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t>TP Nha Trang</t>
+  </si>
+  <si>
+    <t>45-46</t>
+  </si>
+  <si>
+    <t>Formular HN</t>
+  </si>
+  <si>
+    <t>Quận Hồng Bàng</t>
+  </si>
+  <si>
+    <t>TP Cao Lãnh</t>
+  </si>
+  <si>
+    <t>TP Hải Dương</t>
+  </si>
+  <si>
+    <t>91-92</t>
+  </si>
+  <si>
+    <t>Đường bộ (ngày)</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>HY ĐI CÁC TỈNH</t>
+  </si>
+  <si>
+    <t>Tính phí VC</t>
+  </si>
+  <si>
+    <t>40-42</t>
+  </si>
+  <si>
+    <t>Đắk Lắk</t>
+  </si>
+  <si>
+    <t>Lâm Đồng</t>
+  </si>
+  <si>
+    <t>TP Thủ Dầu Một</t>
+  </si>
+  <si>
+    <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t>Quảng Trị</t>
+  </si>
+  <si>
+    <t>TP Hòa Bình</t>
+  </si>
+  <si>
+    <t>TP Đà Lạt</t>
+  </si>
+  <si>
+    <t>TP Sóc Trăng</t>
+  </si>
+  <si>
+    <t>TP Biên Hòa</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>TP Đồng Hới</t>
+  </si>
+  <si>
+    <t>Hòa Bình</t>
+  </si>
+  <si>
+    <t>TP Bắc Ninh</t>
+  </si>
+  <si>
+    <t>Điện Biên</t>
+  </si>
+  <si>
+    <t>TP Tuy Hòa</t>
+  </si>
+  <si>
+    <t>TP Vinh</t>
+  </si>
+  <si>
+    <t>TP Nam Định</t>
+  </si>
+  <si>
+    <t>Bình Thuận</t>
+  </si>
+  <si>
+    <t>TP Phủ Lý</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t>Ngoại thành</t>
+  </si>
+  <si>
+    <t>TP Vĩnh Long</t>
+  </si>
+  <si>
+    <t>Chi phí VC cơ sở</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>Quảng Bình</t>
+  </si>
+  <si>
+    <t>51-52</t>
+  </si>
+  <si>
+    <t>TP Hà Giang</t>
+  </si>
+  <si>
+    <t>TP Bạc Liêu</t>
+  </si>
+  <si>
+    <t>Hà Giang</t>
+  </si>
+  <si>
+    <t>Tiền Giang</t>
+  </si>
+  <si>
+    <t>TP Quy Nhơn</t>
+  </si>
+  <si>
+    <t>TP Thái Nguyên</t>
+  </si>
+  <si>
+    <t>TP Kon Tum</t>
+  </si>
+  <si>
+    <t>TP Lai Châu</t>
+  </si>
+  <si>
+    <t>CPN (giờ)</t>
+  </si>
+  <si>
+    <t>TP Bắc Giang</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>TP Tam Kỳ</t>
+  </si>
+  <si>
+    <t>TP Thái Bình</t>
+  </si>
+  <si>
+    <t>Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Next 0.5</t>
+  </si>
+  <si>
+    <t>Trà Vinh</t>
+  </si>
+  <si>
+    <t>Bình Phước</t>
+  </si>
+  <si>
+    <t>Các quận nội thành</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Bắc Giang</t>
+  </si>
+  <si>
+    <t>Hải Dương</t>
+  </si>
+  <si>
+    <t>43-44</t>
+  </si>
+  <si>
+    <t>53-54</t>
+  </si>
+  <si>
+    <t>TP Vĩnh Yên</t>
+  </si>
   <si>
     <t>An Giang</t>
   </si>
   <si>
-    <t>Bà Rịa – Vũng Tàu</t>
+    <t>TP Đồng Xoài</t>
+  </si>
+  <si>
+    <t>TP Hạ Long</t>
+  </si>
+  <si>
+    <t>TP Tây Ninh</t>
   </si>
   <si>
     <t>Bạc Liêu</t>
   </si>
   <si>
-    <t>Bắc Giang</t>
-  </si>
-  <si>
-    <t>Bắc Kạn</t>
-  </si>
-  <si>
-    <t>Bắc Ninh</t>
-  </si>
-  <si>
-    <t>Bến Tre</t>
-  </si>
-  <si>
-    <t>Bình Dương</t>
-  </si>
-  <si>
-    <t>Bình Định</t>
-  </si>
-  <si>
-    <t>Bình Phước</t>
-  </si>
-  <si>
-    <t>Bình Thuận</t>
-  </si>
-  <si>
-    <t>Cà Mau</t>
-  </si>
-  <si>
-    <t>Cao Bằng</t>
-  </si>
-  <si>
-    <t>Cần Thơ</t>
-  </si>
-  <si>
-    <t>Đà Nẵng</t>
-  </si>
-  <si>
-    <t>Đắk Lắk</t>
-  </si>
-  <si>
-    <t>Đắk Nông</t>
-  </si>
-  <si>
-    <t>Điện Biên</t>
-  </si>
-  <si>
-    <t>Đồng Nai</t>
-  </si>
-  <si>
-    <t>Đồng Tháp</t>
-  </si>
-  <si>
-    <t>Gia Lai</t>
-  </si>
-  <si>
-    <t>Hà Giang</t>
-  </si>
-  <si>
-    <t>Hà Nam</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>Hà Tĩnh</t>
-  </si>
-  <si>
-    <t>Hải Dương</t>
-  </si>
-  <si>
-    <t>Hải Phòng</t>
-  </si>
-  <si>
-    <t>Quận Hồng Bàng</t>
-  </si>
-  <si>
-    <t>Hậu Giang</t>
-  </si>
-  <si>
-    <t>Hòa Bình</t>
-  </si>
-  <si>
-    <t>Hưng Yên</t>
-  </si>
-  <si>
-    <t>Khánh Hòa</t>
-  </si>
-  <si>
-    <t>Kiên Giang</t>
-  </si>
-  <si>
-    <t>Kon Tum</t>
-  </si>
-  <si>
-    <t>Lai Châu</t>
-  </si>
-  <si>
-    <t>Lạng Sơn</t>
-  </si>
-  <si>
-    <t>Lào Cai</t>
-  </si>
-  <si>
-    <t>Lâm Đồng</t>
-  </si>
-  <si>
-    <t>Long An</t>
-  </si>
-  <si>
-    <t>Nam Định</t>
-  </si>
-  <si>
-    <t>Nghệ An</t>
-  </si>
-  <si>
-    <t>Ninh Bình</t>
-  </si>
-  <si>
-    <t>Ninh Thuận</t>
-  </si>
-  <si>
-    <t>Phú Thọ</t>
-  </si>
-  <si>
-    <t>Phú Yên</t>
-  </si>
-  <si>
-    <t>Quảng Bình</t>
-  </si>
-  <si>
-    <t>Quảng Nam</t>
-  </si>
-  <si>
-    <t>Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>Quảng Ninh</t>
-  </si>
-  <si>
-    <t>Quảng Trị</t>
-  </si>
-  <si>
-    <t>Sóc Trăng</t>
-  </si>
-  <si>
-    <t>Sơn La</t>
-  </si>
-  <si>
-    <t>Tây Ninh</t>
-  </si>
-  <si>
-    <t>Thái Bình</t>
-  </si>
-  <si>
-    <t>Thái Nguyên</t>
-  </si>
-  <si>
-    <t>Thanh Hóa</t>
-  </si>
-  <si>
-    <t>Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t>Tiền Giang</t>
-  </si>
-  <si>
-    <t>Trà Vinh</t>
-  </si>
-  <si>
-    <t>Tuyên Quang</t>
-  </si>
-  <si>
-    <t>Vĩnh Long</t>
-  </si>
-  <si>
-    <t>Vĩnh Phúc</t>
-  </si>
-  <si>
-    <t>Yên Bái</t>
-  </si>
-  <si>
-    <t>Thành phố</t>
-  </si>
-  <si>
-    <t>Khu vực trả hàng</t>
-  </si>
-  <si>
-    <t>Các quận nội thành</t>
-  </si>
-  <si>
-    <t>TP Long Xuyên</t>
-  </si>
-  <si>
-    <t>TP Bà Rịa</t>
-  </si>
-  <si>
-    <t>TP Bạc Liêu</t>
-  </si>
-  <si>
-    <t>TP Bắc Giang</t>
-  </si>
-  <si>
-    <t>TP Bắc Kạn</t>
-  </si>
-  <si>
-    <t>TP Bắc Ninh</t>
-  </si>
-  <si>
-    <t>TP Bến Tre</t>
-  </si>
-  <si>
-    <t>TP Thủ Dầu Một</t>
-  </si>
-  <si>
-    <t>TP Quy Nhơn</t>
-  </si>
-  <si>
-    <t>TP Đồng Xoài</t>
-  </si>
-  <si>
-    <t>TP Phan Thiết</t>
-  </si>
-  <si>
-    <t>TP Cà Mau</t>
-  </si>
-  <si>
-    <t>TP Cao Bằng</t>
-  </si>
-  <si>
-    <t>TP Buôn Ma Thuột</t>
-  </si>
-  <si>
-    <t>TP Gia Nghĩa</t>
-  </si>
-  <si>
-    <t>TP Điện Biên Phủ</t>
-  </si>
-  <si>
-    <t>TP Biên Hòa</t>
-  </si>
-  <si>
-    <t>TP Cao Lãnh</t>
-  </si>
-  <si>
-    <t>TP Pleiku</t>
-  </si>
-  <si>
-    <t>TP Hà Giang</t>
-  </si>
-  <si>
-    <t>TP Phủ Lý</t>
-  </si>
-  <si>
-    <t>TP Hà Tĩnh</t>
-  </si>
-  <si>
-    <t>TP Hải Dương</t>
-  </si>
-  <si>
     <t>TP Vị Thanh</t>
-  </si>
-  <si>
-    <t>TP Hòa Bình</t>
-  </si>
-  <si>
-    <t>TP Hưng Yên</t>
-  </si>
-  <si>
-    <t>TP Nha Trang</t>
-  </si>
-  <si>
-    <t>TP Rạch Giá</t>
-  </si>
-  <si>
-    <t>TP Kon Tum</t>
-  </si>
-  <si>
-    <t>TP Lai Châu</t>
-  </si>
-  <si>
-    <t>TP Lạng Sơn</t>
-  </si>
-  <si>
-    <t>TP Lào Cai</t>
-  </si>
-  <si>
-    <t>TP Đà Lạt</t>
-  </si>
-  <si>
-    <t>TP Tân An</t>
-  </si>
-  <si>
-    <t>TP Nam Định</t>
-  </si>
-  <si>
-    <t>TP Vinh</t>
-  </si>
-  <si>
-    <t>TP Ninh Bình</t>
-  </si>
-  <si>
-    <t>TP Việt Trì</t>
-  </si>
-  <si>
-    <t>TP Tuy Hòa</t>
-  </si>
-  <si>
-    <t>TP Đồng Hới</t>
-  </si>
-  <si>
-    <t>TP Tam Kỳ</t>
-  </si>
-  <si>
-    <t>TP Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>TP Hạ Long</t>
-  </si>
-  <si>
-    <t>TP Đông Hà</t>
-  </si>
-  <si>
-    <t>TP Sóc Trăng</t>
-  </si>
-  <si>
-    <t>TP Sơn La</t>
-  </si>
-  <si>
-    <t>TP Tây Ninh</t>
-  </si>
-  <si>
-    <t>TP Thái Bình</t>
-  </si>
-  <si>
-    <t>TP Thái Nguyên</t>
-  </si>
-  <si>
-    <t>TP Thanh Hóa</t>
-  </si>
-  <si>
-    <t>TP Huế</t>
-  </si>
-  <si>
-    <t>TP Mỹ Tho</t>
-  </si>
-  <si>
-    <t>TP Trà Vinh</t>
-  </si>
-  <si>
-    <t>TP Tuyên Quang</t>
-  </si>
-  <si>
-    <t>TP Vĩnh Long</t>
-  </si>
-  <si>
-    <t>TP Vĩnh Yên</t>
-  </si>
-  <si>
-    <t>TP Yên Bái</t>
-  </si>
-  <si>
-    <t>TP Phan Rang–Tháp Chàm</t>
-  </si>
-  <si>
-    <t>Mã Vùng</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Next 0.5 kg</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>Đường bộ (ngày)</t>
-  </si>
-  <si>
-    <t>CPN (giờ)</t>
-  </si>
-  <si>
-    <t>Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>TP Đà Nẵng</t>
-  </si>
-  <si>
-    <t>TP Cần Thơ</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Ngoại thành</t>
-  </si>
-  <si>
-    <t>Tổng chí phí VC</t>
-  </si>
-  <si>
-    <t>Chi phí VC cơ sở</t>
-  </si>
-  <si>
-    <t>Trả hàng ngoại thành</t>
-  </si>
-  <si>
-    <t>Tính phí VC</t>
-  </si>
-  <si>
-    <t>Vùng</t>
-  </si>
-  <si>
-    <t>Mã bưu chính</t>
-  </si>
-  <si>
-    <t>63-64</t>
-  </si>
-  <si>
-    <t>61-62</t>
-  </si>
-  <si>
-    <t>45-46</t>
-  </si>
-  <si>
-    <t>70-74</t>
-  </si>
-  <si>
-    <t>91-92</t>
-  </si>
-  <si>
-    <t>82-83</t>
-  </si>
-  <si>
-    <t>43-44</t>
-  </si>
-  <si>
-    <t>51-52</t>
-  </si>
-  <si>
-    <t>53-54</t>
-  </si>
-  <si>
-    <t>40-42</t>
-  </si>
-  <si>
-    <t>Next 0.5</t>
-  </si>
-  <si>
-    <t>Mã Vùng (HCM)</t>
-  </si>
-  <si>
-    <t>Mã Vùng (HY)</t>
-  </si>
-  <si>
-    <t>Formular HY</t>
-  </si>
-  <si>
-    <t>Formular HCM</t>
-  </si>
-  <si>
-    <t>HY ĐI CÁC TỈNH</t>
-  </si>
-  <si>
-    <t>HCM ĐI CÁC TỈNH</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -586,28 +581,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -615,7 +604,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -623,17 +611,15 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -654,7 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +663,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -686,63 +679,79 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1053,744 +1062,847 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AB680D-F80F-49D2-AB15-3493AD70258A}">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="3" customWidth="1"/>
-    <col min="4" max="6" width="10.6640625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="12" width="8.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" customWidth="1"/>
+    <col min="4" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="16">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="14">
+        <v>8400</v>
+      </c>
+      <c r="C3" s="14">
+        <v>8400</v>
+      </c>
+      <c r="D3" s="14">
+        <v>8400</v>
+      </c>
+      <c r="E3" s="14">
+        <v>8400</v>
+      </c>
+      <c r="F3" s="14">
+        <v>8400</v>
+      </c>
+      <c r="G3" s="14">
+        <v>8400</v>
+      </c>
+      <c r="H3" s="14">
+        <v>8400</v>
+      </c>
+      <c r="I3" s="14">
+        <v>8400</v>
+      </c>
+      <c r="J3" s="14">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="14">
+        <v>8400</v>
+      </c>
+      <c r="C4" s="14">
+        <v>13100</v>
+      </c>
+      <c r="D4" s="14">
+        <v>13100</v>
+      </c>
+      <c r="E4" s="14">
+        <v>15200</v>
+      </c>
+      <c r="F4" s="14">
+        <v>15200</v>
+      </c>
+      <c r="G4" s="14">
+        <v>15800</v>
+      </c>
+      <c r="H4" s="14">
+        <v>15800</v>
+      </c>
+      <c r="I4" s="14">
+        <v>15800</v>
+      </c>
+      <c r="J4" s="14">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="B5" s="14">
+        <v>11000</v>
+      </c>
+      <c r="C5" s="14">
+        <v>18000</v>
+      </c>
+      <c r="D5" s="14">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="14">
+        <v>22400</v>
+      </c>
+      <c r="F5" s="14">
+        <v>23000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>23500</v>
+      </c>
+      <c r="H5" s="14">
+        <v>24500</v>
+      </c>
+      <c r="I5" s="14">
+        <v>22500</v>
+      </c>
+      <c r="J5" s="14">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>14000</v>
+      </c>
+      <c r="C6" s="14">
+        <v>24700</v>
+      </c>
+      <c r="D6" s="14">
+        <v>27500</v>
+      </c>
+      <c r="E6" s="14">
+        <v>31500</v>
+      </c>
+      <c r="F6" s="14">
+        <v>33800</v>
+      </c>
+      <c r="G6" s="14">
+        <v>35000</v>
+      </c>
+      <c r="H6" s="14">
+        <v>36300</v>
+      </c>
+      <c r="I6" s="14">
+        <v>29800</v>
+      </c>
+      <c r="J6" s="14">
+        <v>40600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14">
+        <v>14500</v>
+      </c>
+      <c r="C7" s="14">
+        <v>31400</v>
+      </c>
+      <c r="D7" s="14">
+        <v>35400</v>
+      </c>
+      <c r="E7" s="14">
+        <v>41400</v>
+      </c>
+      <c r="F7" s="14">
+        <v>45200</v>
+      </c>
+      <c r="G7" s="14">
+        <v>46200</v>
+      </c>
+      <c r="H7" s="14">
+        <v>47300</v>
+      </c>
+      <c r="I7" s="14">
+        <v>39900</v>
+      </c>
+      <c r="J7" s="14">
+        <v>50600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="B8" s="14">
+        <v>18000</v>
+      </c>
+      <c r="C8" s="14">
+        <v>41400</v>
+      </c>
+      <c r="D8" s="14">
+        <v>47900</v>
+      </c>
+      <c r="E8" s="14">
+        <v>48300</v>
+      </c>
+      <c r="F8" s="14">
+        <v>53600</v>
+      </c>
+      <c r="G8" s="14">
+        <v>56700</v>
+      </c>
+      <c r="H8" s="14">
+        <v>56700</v>
+      </c>
+      <c r="I8" s="14">
+        <v>48300</v>
+      </c>
+      <c r="J8" s="14">
+        <v>66200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14">
+        <v>18000</v>
+      </c>
+      <c r="C9" s="14">
+        <v>49500</v>
+      </c>
+      <c r="D9" s="14">
+        <v>56700</v>
+      </c>
+      <c r="E9" s="14">
+        <v>57800</v>
+      </c>
+      <c r="F9" s="14">
+        <v>60900</v>
+      </c>
+      <c r="G9" s="14">
+        <v>63000</v>
+      </c>
+      <c r="H9" s="14">
+        <v>65100</v>
+      </c>
+      <c r="I9" s="14">
+        <v>56700</v>
+      </c>
+      <c r="J9" s="14">
+        <v>71400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2100</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="14">
+        <v>4100</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4900</v>
+      </c>
+      <c r="F10" s="14">
+        <v>7700</v>
+      </c>
+      <c r="G10" s="14">
+        <v>8800</v>
+      </c>
+      <c r="H10" s="14">
+        <v>8900</v>
+      </c>
+      <c r="I10" s="14">
+        <v>7400</v>
+      </c>
+      <c r="J10" s="14">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="B14" s="14">
+        <v>8400</v>
+      </c>
+      <c r="C14" s="14">
+        <v>8500</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10500</v>
+      </c>
+      <c r="E14" s="14">
+        <v>10500</v>
+      </c>
+      <c r="F14" s="14">
+        <v>10500</v>
+      </c>
+      <c r="G14" s="14">
+        <v>11000</v>
+      </c>
+      <c r="H14" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I14" s="14">
+        <v>12500</v>
+      </c>
+      <c r="J14" s="14">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="B15" s="14">
+        <v>9500</v>
+      </c>
+      <c r="C15" s="14">
+        <v>10200</v>
+      </c>
+      <c r="D15" s="14">
+        <v>13000</v>
+      </c>
+      <c r="E15" s="14">
+        <v>14000</v>
+      </c>
+      <c r="F15" s="14">
+        <v>14500</v>
+      </c>
+      <c r="G15" s="14">
+        <v>15000</v>
+      </c>
+      <c r="H15" s="14">
+        <v>16000</v>
+      </c>
+      <c r="I15" s="14">
+        <v>17000</v>
+      </c>
+      <c r="J15" s="14">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="B16" s="14">
+        <v>11000</v>
+      </c>
+      <c r="C16" s="14">
+        <v>16800</v>
+      </c>
+      <c r="D16" s="14">
+        <v>23500</v>
+      </c>
+      <c r="E16" s="14">
+        <v>25400</v>
+      </c>
+      <c r="F16" s="14">
+        <v>26500</v>
+      </c>
+      <c r="G16" s="14">
+        <v>28100</v>
+      </c>
+      <c r="H16" s="14">
+        <v>32300</v>
+      </c>
+      <c r="I16" s="14">
+        <v>32900</v>
+      </c>
+      <c r="J16" s="14">
+        <v>33700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="14">
+        <v>13000</v>
+      </c>
+      <c r="C17" s="14">
+        <v>23500</v>
+      </c>
+      <c r="D17" s="14">
+        <v>31300</v>
+      </c>
+      <c r="E17" s="14">
+        <v>35000</v>
+      </c>
+      <c r="F17" s="14">
+        <v>35300</v>
+      </c>
+      <c r="G17" s="14">
+        <v>35600</v>
+      </c>
+      <c r="H17" s="14">
+        <v>41000</v>
+      </c>
+      <c r="I17" s="14">
+        <v>43400</v>
+      </c>
+      <c r="J17" s="14">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14">
+        <v>15100</v>
+      </c>
+      <c r="C18" s="14">
+        <v>32400</v>
+      </c>
+      <c r="D18" s="14">
+        <v>44300</v>
+      </c>
+      <c r="E18" s="14">
+        <v>48100</v>
+      </c>
+      <c r="F18" s="14">
+        <v>48400</v>
+      </c>
+      <c r="G18" s="14">
+        <v>48700</v>
+      </c>
+      <c r="H18" s="14">
+        <v>56000</v>
+      </c>
+      <c r="I18" s="14">
+        <v>56700</v>
+      </c>
+      <c r="J18" s="14">
+        <v>60800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="B19" s="14">
+        <v>17000</v>
+      </c>
+      <c r="C19" s="14">
+        <v>39500</v>
+      </c>
+      <c r="D19" s="14">
+        <v>55000</v>
+      </c>
+      <c r="E19" s="14">
+        <v>60300</v>
+      </c>
+      <c r="F19" s="14">
+        <v>60500</v>
+      </c>
+      <c r="G19" s="14">
+        <v>60800</v>
+      </c>
+      <c r="H19" s="14">
+        <v>69800</v>
+      </c>
+      <c r="I19" s="14">
+        <v>71400</v>
+      </c>
+      <c r="J19" s="14">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>2</v>
+      </c>
+      <c r="B20" s="14">
+        <v>18900</v>
+      </c>
+      <c r="C20" s="14">
+        <v>46800</v>
+      </c>
+      <c r="D20" s="14">
+        <v>64800</v>
+      </c>
+      <c r="E20" s="14">
+        <v>68300</v>
+      </c>
+      <c r="F20" s="14">
+        <v>68600</v>
+      </c>
+      <c r="G20" s="14">
+        <v>72200</v>
+      </c>
+      <c r="H20" s="14">
+        <v>83100</v>
+      </c>
+      <c r="I20" s="14">
+        <v>83600</v>
+      </c>
+      <c r="J20" s="14">
+        <v>86500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1800</v>
+      </c>
+      <c r="C21" s="14">
+        <v>3500</v>
+      </c>
+      <c r="D21" s="14">
+        <v>4600</v>
+      </c>
+      <c r="E21" s="14">
+        <v>5100</v>
+      </c>
+      <c r="F21" s="14">
+        <v>8200</v>
+      </c>
+      <c r="G21" s="14">
+        <v>10000</v>
+      </c>
+      <c r="H21" s="14">
+        <v>10900</v>
+      </c>
+      <c r="I21" s="14">
+        <v>11000</v>
+      </c>
+      <c r="J21" s="14">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="16">
         <v>5</v>
       </c>
-      <c r="D2" s="15">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14">
-        <f>INDEX($B$7:$J$13,MATCH(IF(C2&gt;2,2,C2),$A$7:$A$13,1),MATCH(B2,$B$6:$J$6,1))+IF(C2&gt;2,ROUNDUP((C2-2)/0.5,0)*HLOOKUP(B2,$B$6:$J$14,9,FALSE),0)</f>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14">
+        <f>INDEX($B$3:$J$9,MATCH(IF(C24&gt;2,2,C24),$A$3:$A$9,1),MATCH(B24,$B$2:$J$2,1))+IF(C24&gt;2,ROUNDUP((C24-2)/0.5,0)*HLOOKUP(B24,$B$2:$J$10,9,FALSE),0)</f>
         <v>30600</v>
       </c>
-      <c r="F2" s="17">
-        <f>IF(D2,120%,100%)*E2</f>
+      <c r="F24" s="17">
+        <f t="shared" ref="F24:F29" si="0">IF(D24,120%,100%)*E24</f>
         <v>36720</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="16">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="16">
         <v>5</v>
       </c>
-      <c r="D3" s="15">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <f>INDEX($B$18:$J$24,MATCH(IF(C3&gt;2,2,C3),$A$18:$A$24,1),MATCH(B3,$B$17:$J$17,1))+IF(C3&gt;2,ROUNDUP((C3-2)/0.5,0)*HLOOKUP(B3,$B$17:$J$25,9,FALSE),0)</f>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
+        <f>INDEX($B$14:$J$20,MATCH(IF(C25&gt;2,2,C25),$A$14:$A$20,1),MATCH(B25,$B$13:$J$13,1))+IF(C25&gt;2,ROUNDUP((C25-2)/0.5,0)*HLOOKUP(B25,$B$13:$J$21,9,FALSE),0)</f>
         <v>29700</v>
       </c>
-      <c r="F3" s="17">
-        <f>IF(D3,120%,100%)*E3</f>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
         <v>35640</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="B7" s="14">
-        <v>8400</v>
-      </c>
-      <c r="C7" s="14">
-        <v>8400</v>
-      </c>
-      <c r="D7" s="14">
-        <v>8400</v>
-      </c>
-      <c r="E7" s="14">
-        <v>8400</v>
-      </c>
-      <c r="F7" s="14">
-        <v>8400</v>
-      </c>
-      <c r="G7" s="14">
-        <v>8400</v>
-      </c>
-      <c r="H7" s="14">
-        <v>8400</v>
-      </c>
-      <c r="I7" s="14">
-        <v>8400</v>
-      </c>
-      <c r="J7" s="14">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="B8" s="14">
-        <v>8400</v>
-      </c>
-      <c r="C8" s="14">
-        <v>13100</v>
-      </c>
-      <c r="D8" s="14">
-        <v>13100</v>
-      </c>
-      <c r="E8" s="14">
-        <v>15200</v>
-      </c>
-      <c r="F8" s="14">
-        <v>15200</v>
-      </c>
-      <c r="G8" s="14">
-        <v>15800</v>
-      </c>
-      <c r="H8" s="14">
-        <v>15800</v>
-      </c>
-      <c r="I8" s="14">
-        <v>15800</v>
-      </c>
-      <c r="J8" s="14">
-        <v>17900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="B9" s="14">
-        <v>11000</v>
-      </c>
-      <c r="C9" s="14">
-        <v>18000</v>
-      </c>
-      <c r="D9" s="14">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="14">
-        <v>22400</v>
-      </c>
-      <c r="F9" s="14">
-        <v>23000</v>
-      </c>
-      <c r="G9" s="14">
-        <v>23500</v>
-      </c>
-      <c r="H9" s="14">
-        <v>24500</v>
-      </c>
-      <c r="I9" s="14">
-        <v>22500</v>
-      </c>
-      <c r="J9" s="14">
-        <v>28400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="B10" s="14">
-        <v>14000</v>
-      </c>
-      <c r="C10" s="14">
-        <v>24700</v>
-      </c>
-      <c r="D10" s="14">
-        <v>27500</v>
-      </c>
-      <c r="E10" s="14">
-        <v>31500</v>
-      </c>
-      <c r="F10" s="14">
-        <v>33800</v>
-      </c>
-      <c r="G10" s="14">
-        <v>35000</v>
-      </c>
-      <c r="H10" s="14">
-        <v>36300</v>
-      </c>
-      <c r="I10" s="14">
-        <v>29800</v>
-      </c>
-      <c r="J10" s="14">
-        <v>40600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="21">
-        <v>1</v>
-      </c>
-      <c r="B11" s="14">
-        <v>14500</v>
-      </c>
-      <c r="C11" s="14">
-        <v>31400</v>
-      </c>
-      <c r="D11" s="14">
-        <v>35400</v>
-      </c>
-      <c r="E11" s="14">
-        <v>41400</v>
-      </c>
-      <c r="F11" s="14">
-        <v>45200</v>
-      </c>
-      <c r="G11" s="14">
-        <v>46200</v>
-      </c>
-      <c r="H11" s="14">
-        <v>47300</v>
-      </c>
-      <c r="I11" s="14">
-        <v>39900</v>
-      </c>
-      <c r="J11" s="14">
-        <v>50600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="B12" s="14">
-        <v>18000</v>
-      </c>
-      <c r="C12" s="14">
-        <v>41400</v>
-      </c>
-      <c r="D12" s="14">
-        <v>47900</v>
-      </c>
-      <c r="E12" s="14">
-        <v>48300</v>
-      </c>
-      <c r="F12" s="14">
-        <v>53600</v>
-      </c>
-      <c r="G12" s="14">
-        <v>56700</v>
-      </c>
-      <c r="H12" s="14">
-        <v>56700</v>
-      </c>
-      <c r="I12" s="14">
-        <v>48300</v>
-      </c>
-      <c r="J12" s="14">
-        <v>66200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="21">
-        <v>2</v>
-      </c>
-      <c r="B13" s="14">
-        <v>18000</v>
-      </c>
-      <c r="C13" s="14">
-        <v>49500</v>
-      </c>
-      <c r="D13" s="14">
-        <v>56700</v>
-      </c>
-      <c r="E13" s="14">
-        <v>57800</v>
-      </c>
-      <c r="F13" s="14">
-        <v>60900</v>
-      </c>
-      <c r="G13" s="14">
-        <v>63000</v>
-      </c>
-      <c r="H13" s="14">
-        <v>65100</v>
-      </c>
-      <c r="I13" s="14">
-        <v>56700</v>
-      </c>
-      <c r="J13" s="14">
-        <v>71400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="14">
-        <v>2100</v>
-      </c>
-      <c r="C14" s="14">
-        <v>3000</v>
-      </c>
-      <c r="D14" s="14">
-        <v>4100</v>
-      </c>
-      <c r="E14" s="14">
-        <v>4900</v>
-      </c>
-      <c r="F14" s="14">
-        <v>7700</v>
-      </c>
-      <c r="G14" s="14">
-        <v>8800</v>
-      </c>
-      <c r="H14" s="14">
-        <v>8900</v>
-      </c>
-      <c r="I14" s="14">
-        <v>7400</v>
-      </c>
-      <c r="J14" s="14">
-        <v>8900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="B18" s="14">
-        <v>8400</v>
-      </c>
-      <c r="C18" s="14">
-        <v>8500</v>
-      </c>
-      <c r="D18" s="14">
-        <v>10500</v>
-      </c>
-      <c r="E18" s="14">
-        <v>10500</v>
-      </c>
-      <c r="F18" s="14">
-        <v>10500</v>
-      </c>
-      <c r="G18" s="14">
-        <v>11000</v>
-      </c>
-      <c r="H18" s="14">
-        <v>12000</v>
-      </c>
-      <c r="I18" s="14">
-        <v>12500</v>
-      </c>
-      <c r="J18" s="14">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="B19" s="14">
-        <v>9500</v>
-      </c>
-      <c r="C19" s="14">
-        <v>10200</v>
-      </c>
-      <c r="D19" s="14">
-        <v>13000</v>
-      </c>
-      <c r="E19" s="14">
-        <v>14000</v>
-      </c>
-      <c r="F19" s="14">
-        <v>14500</v>
-      </c>
-      <c r="G19" s="14">
-        <v>15000</v>
-      </c>
-      <c r="H19" s="14">
-        <v>16000</v>
-      </c>
-      <c r="I19" s="14">
-        <v>17000</v>
-      </c>
-      <c r="J19" s="14">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="B20" s="14">
-        <v>11000</v>
-      </c>
-      <c r="C20" s="14">
-        <v>16800</v>
-      </c>
-      <c r="D20" s="14">
-        <v>23500</v>
-      </c>
-      <c r="E20" s="14">
-        <v>25400</v>
-      </c>
-      <c r="F20" s="14">
-        <v>26500</v>
-      </c>
-      <c r="G20" s="14">
-        <v>28100</v>
-      </c>
-      <c r="H20" s="14">
-        <v>32300</v>
-      </c>
-      <c r="I20" s="14">
-        <v>32900</v>
-      </c>
-      <c r="J20" s="14">
-        <v>33700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="B21" s="14">
-        <v>13000</v>
-      </c>
-      <c r="C21" s="14">
-        <v>23500</v>
-      </c>
-      <c r="D21" s="14">
-        <v>31300</v>
-      </c>
-      <c r="E21" s="14">
-        <v>35000</v>
-      </c>
-      <c r="F21" s="14">
-        <v>35300</v>
-      </c>
-      <c r="G21" s="14">
-        <v>35600</v>
-      </c>
-      <c r="H21" s="14">
-        <v>41000</v>
-      </c>
-      <c r="I21" s="14">
-        <v>43400</v>
-      </c>
-      <c r="J21" s="14">
-        <v>44900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="21">
-        <v>1</v>
-      </c>
-      <c r="B22" s="14">
-        <v>15100</v>
-      </c>
-      <c r="C22" s="14">
-        <v>32400</v>
-      </c>
-      <c r="D22" s="14">
-        <v>44300</v>
-      </c>
-      <c r="E22" s="14">
-        <v>48100</v>
-      </c>
-      <c r="F22" s="14">
-        <v>48400</v>
-      </c>
-      <c r="G22" s="14">
-        <v>48700</v>
-      </c>
-      <c r="H22" s="14">
-        <v>56000</v>
-      </c>
-      <c r="I22" s="14">
-        <v>56700</v>
-      </c>
-      <c r="J22" s="14">
-        <v>60800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="B23" s="14">
-        <v>17000</v>
-      </c>
-      <c r="C23" s="14">
-        <v>39500</v>
-      </c>
-      <c r="D23" s="14">
-        <v>55000</v>
-      </c>
-      <c r="E23" s="14">
-        <v>60300</v>
-      </c>
-      <c r="F23" s="14">
-        <v>60500</v>
-      </c>
-      <c r="G23" s="14">
-        <v>60800</v>
-      </c>
-      <c r="H23" s="14">
-        <v>69800</v>
-      </c>
-      <c r="I23" s="14">
-        <v>71400</v>
-      </c>
-      <c r="J23" s="14">
-        <v>79000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="21">
-        <v>2</v>
-      </c>
-      <c r="B24" s="14">
-        <v>18900</v>
-      </c>
-      <c r="C24" s="14">
-        <v>46800</v>
-      </c>
-      <c r="D24" s="14">
-        <v>64800</v>
-      </c>
-      <c r="E24" s="14">
-        <v>68300</v>
-      </c>
-      <c r="F24" s="14">
-        <v>68600</v>
-      </c>
-      <c r="G24" s="14">
-        <v>72200</v>
-      </c>
-      <c r="H24" s="14">
-        <v>83100</v>
-      </c>
-      <c r="I24" s="14">
-        <v>83600</v>
-      </c>
-      <c r="J24" s="14">
-        <v>86500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="14">
-        <v>1800</v>
-      </c>
-      <c r="C25" s="14">
-        <v>3500</v>
-      </c>
-      <c r="D25" s="14">
-        <v>4600</v>
-      </c>
-      <c r="E25" s="14">
-        <v>5100</v>
-      </c>
-      <c r="F25" s="14">
-        <v>8200</v>
-      </c>
-      <c r="G25" s="14">
-        <v>10000</v>
-      </c>
-      <c r="H25" s="14">
-        <v>10900</v>
-      </c>
-      <c r="I25" s="14">
-        <v>11000</v>
-      </c>
-      <c r="J25" s="14">
-        <v>11200</v>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <f>INDEX($B$3:$J$9,MATCH(IF(C26&gt;2,2,C26),$A$3:$A$9,1),MATCH(B26,$B$2:$J$2,1))+IF(C26&gt;2,ROUNDUP((C26-2)/0.5,0)*HLOOKUP(B26,$B$2:$J$10,9,FALSE),0)</f>
+        <v>30600</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>36720</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <f>INDEX($B$3:$J$9,MATCH(IF(C27&gt;2,2,C27),$A$3:$A$9,1),MATCH(B27,$B$2:$J$2,1))+IF(C27&gt;2,ROUNDUP((C27-2)/0.5,0)*HLOOKUP(B27,$B$2:$J$10,9,FALSE),0)</f>
+        <v>30600</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>36720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <f>INDEX($B$3:$J$9,MATCH(IF(C28&gt;2,2,C28),$A$3:$A$9,1),MATCH(B28,$B$2:$J$2,1))+IF(C28&gt;2,ROUNDUP((C28-2)/0.5,0)*HLOOKUP(B28,$B$2:$J$10,9,FALSE),0)</f>
+        <v>30600</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>36720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <f>INDEX($B$3:$J$9,MATCH(IF(C29&gt;2,2,C29),$A$3:$A$9,1),MATCH(B29,$B$2:$J$2,1))+IF(C29&gt;2,ROUNDUP((C29-2)/0.5,0)*HLOOKUP(B29,$B$2:$J$10,9,FALSE),0)</f>
+        <v>30600</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>36720</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529E0F59-F085-4DF7-A4ED-142DBB0F74A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.46484375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="1"/>
+    <col min="11" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D2" s="18">
         <v>1</v>
@@ -1803,7 +1915,7 @@
         <v>50600</v>
       </c>
       <c r="G2" s="17">
-        <f>IF(E2,120%,100%)*F2</f>
+        <f t="shared" ref="G2:G33" si="1">IF(E2,120%,100%)*F2</f>
         <v>50600</v>
       </c>
       <c r="H2" s="19">
@@ -1816,15 +1928,15 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D3" s="18">
         <v>1</v>
@@ -1837,7 +1949,7 @@
         <v>47300</v>
       </c>
       <c r="G3" s="17">
-        <f t="shared" ref="G3:G64" si="1">IF(E3,120%,100%)*F3</f>
+        <f t="shared" si="1"/>
         <v>47300</v>
       </c>
       <c r="H3" s="19">
@@ -1847,15 +1959,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D4" s="18">
         <v>1</v>
@@ -1878,15 +1990,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
@@ -1909,15 +2021,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
@@ -1940,15 +2052,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
@@ -1971,15 +2083,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -2002,15 +2114,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
@@ -2033,15 +2145,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2064,15 +2176,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
@@ -2095,15 +2207,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D12" s="18">
         <v>1</v>
@@ -2126,15 +2238,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
@@ -2157,15 +2269,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -2188,15 +2300,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D15" s="18">
         <v>1</v>
@@ -2219,15 +2331,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="D16" s="18">
         <v>1</v>
@@ -2250,15 +2362,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D17" s="18">
         <v>1</v>
@@ -2281,15 +2393,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D18" s="18">
         <v>1</v>
@@ -2312,15 +2424,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -2343,15 +2455,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D20" s="18">
         <v>1</v>
@@ -2374,15 +2486,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -2405,15 +2517,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D22" s="18">
         <v>1</v>
@@ -2436,15 +2548,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D23" s="18">
         <v>1</v>
@@ -2467,15 +2579,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -2498,15 +2610,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -2529,15 +2641,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D26" s="18">
         <v>1</v>
@@ -2560,15 +2672,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="D27" s="18">
         <v>1</v>
@@ -2591,15 +2703,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="D28" s="18">
         <v>1</v>
@@ -2622,15 +2734,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -2653,15 +2765,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D30" s="18">
         <v>1</v>
@@ -2684,15 +2796,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -2715,15 +2827,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -2746,15 +2858,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -2777,15 +2889,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -2798,7 +2910,7 @@
         <v>50600</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G34:G65" si="3">IF(E34,120%,100%)*F34</f>
         <v>50600</v>
       </c>
       <c r="H34" s="19">
@@ -2808,15 +2920,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -2829,7 +2941,7 @@
         <v>50600</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H35" s="19">
@@ -2839,15 +2951,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -2860,7 +2972,7 @@
         <v>50600</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H36" s="19">
@@ -2870,15 +2982,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D37" s="18">
         <v>1</v>
@@ -2891,7 +3003,7 @@
         <v>39900</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39900</v>
       </c>
       <c r="H37" s="19">
@@ -2901,15 +3013,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D38" s="18">
         <v>1</v>
@@ -2922,7 +3034,7 @@
         <v>50600</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H38" s="19">
@@ -2932,15 +3044,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D39" s="18">
         <v>1</v>
@@ -2953,7 +3065,7 @@
         <v>50600</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H39" s="19">
@@ -2963,15 +3075,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D40" s="18">
         <v>1</v>
@@ -2984,7 +3096,7 @@
         <v>50600</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H40" s="19">
@@ -2994,15 +3106,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D41" s="18">
         <v>1</v>
@@ -3015,7 +3127,7 @@
         <v>35400</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35400</v>
       </c>
       <c r="H41" s="19">
@@ -3025,15 +3137,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D42" s="18">
         <v>1</v>
@@ -3046,7 +3158,7 @@
         <v>41400</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41400</v>
       </c>
       <c r="H42" s="19">
@@ -3056,15 +3168,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D43" s="18">
         <v>1</v>
@@ -3077,7 +3189,7 @@
         <v>41400</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41400</v>
       </c>
       <c r="H43" s="19">
@@ -3087,15 +3199,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D44" s="18">
         <v>1</v>
@@ -3108,7 +3220,7 @@
         <v>50600</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H44" s="19">
@@ -3118,15 +3230,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D45" s="18">
         <v>1</v>
@@ -3139,7 +3251,7 @@
         <v>41400</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41400</v>
       </c>
       <c r="H45" s="19">
@@ -3149,15 +3261,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D46" s="18">
         <v>1</v>
@@ -3170,7 +3282,7 @@
         <v>50600</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H46" s="19">
@@ -3180,15 +3292,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D47" s="18">
         <v>1</v>
@@ -3201,7 +3313,7 @@
         <v>47300</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47300</v>
       </c>
       <c r="H47" s="19">
@@ -3211,15 +3323,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D48" s="18">
         <v>1</v>
@@ -3232,7 +3344,7 @@
         <v>46200</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46200</v>
       </c>
       <c r="H48" s="19">
@@ -3242,15 +3354,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D49" s="18">
         <v>1</v>
@@ -3263,7 +3375,7 @@
         <v>46200</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46200</v>
       </c>
       <c r="H49" s="19">
@@ -3273,15 +3385,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D50" s="18">
         <v>1</v>
@@ -3294,7 +3406,7 @@
         <v>41400</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41400</v>
       </c>
       <c r="H50" s="19">
@@ -3304,15 +3416,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D51" s="18">
         <v>1</v>
@@ -3325,7 +3437,7 @@
         <v>46200</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46200</v>
       </c>
       <c r="H51" s="19">
@@ -3335,15 +3447,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D52" s="18">
         <v>1</v>
@@ -3356,7 +3468,7 @@
         <v>50600</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H52" s="19">
@@ -3366,15 +3478,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D53" s="18">
         <v>1</v>
@@ -3387,7 +3499,7 @@
         <v>50600</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H53" s="19">
@@ -3397,15 +3509,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D54" s="18">
         <v>1</v>
@@ -3418,7 +3530,7 @@
         <v>50600</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H54" s="19">
@@ -3428,15 +3540,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D55" s="18">
         <v>1</v>
@@ -3449,7 +3561,7 @@
         <v>35400</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35400</v>
       </c>
       <c r="H55" s="19">
@@ -3459,15 +3571,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D56" s="18">
         <v>1</v>
@@ -3480,7 +3592,7 @@
         <v>39900</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39900</v>
       </c>
       <c r="H56" s="19">
@@ -3490,15 +3602,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D57" s="18">
         <v>1</v>
@@ -3511,7 +3623,7 @@
         <v>41400</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41400</v>
       </c>
       <c r="H57" s="19">
@@ -3521,15 +3633,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="D58" s="18">
         <v>1</v>
@@ -3542,7 +3654,7 @@
         <v>45200</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45200</v>
       </c>
       <c r="H58" s="19">
@@ -3552,15 +3664,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D59" s="18">
         <v>1</v>
@@ -3573,7 +3685,7 @@
         <v>50600</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H59" s="19">
@@ -3583,15 +3695,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D60" s="18">
         <v>1</v>
@@ -3604,7 +3716,7 @@
         <v>50600</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H60" s="19">
@@ -3614,15 +3726,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D61" s="18">
         <v>1</v>
@@ -3635,7 +3747,7 @@
         <v>50600</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H61" s="19">
@@ -3645,15 +3757,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D62" s="18">
         <v>1</v>
@@ -3666,7 +3778,7 @@
         <v>50600</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50600</v>
       </c>
       <c r="H62" s="19">
@@ -3676,15 +3788,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D63" s="18">
         <v>1</v>
@@ -3697,7 +3809,7 @@
         <v>35400</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35400</v>
       </c>
       <c r="H63" s="19">
@@ -3707,15 +3819,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D64" s="18">
         <v>1</v>
@@ -3728,7 +3840,7 @@
         <v>39900</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39900</v>
       </c>
       <c r="H64" s="19">
@@ -3738,39 +3850,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="21">
         <v>0.05</v>
       </c>
@@ -3802,7 +3914,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="21">
         <v>0.1</v>
       </c>
@@ -3834,7 +3946,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="21">
         <v>0.25</v>
       </c>
@@ -3866,7 +3978,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="21">
         <v>0.5</v>
       </c>
@@ -3898,7 +4010,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="21">
         <v>1</v>
       </c>
@@ -3930,7 +4042,7 @@
         <v>50600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="21">
         <v>1.5</v>
       </c>
@@ -3962,7 +4074,7 @@
         <v>66200</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="21">
         <v>2</v>
       </c>
@@ -3994,9 +4106,9 @@
         <v>71400</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C75" s="14">
         <v>2100</v>
@@ -4028,71 +4140,75 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F160B6-F54C-420A-931F-DE381712B96F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.46484375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="13" width="8.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="1"/>
+    <col min="11" max="11" width="8" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D2" s="18">
         <v>2.5</v>
@@ -4105,7 +4221,7 @@
         <v>69400</v>
       </c>
       <c r="G2" s="17">
-        <f>IF(E2,120%,100%)*F2</f>
+        <f t="shared" ref="G2:G33" si="1">IF(E2,120%,100%)*F2</f>
         <v>83280</v>
       </c>
       <c r="H2" s="19">
@@ -4115,15 +4231,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="D3" s="18">
         <v>100</v>
@@ -4136,7 +4252,7 @@
         <v>732800</v>
       </c>
       <c r="G3" s="17">
-        <f t="shared" ref="G3:G64" si="1">IF(E3,120%,100%)*F3</f>
+        <f t="shared" si="1"/>
         <v>879360</v>
       </c>
       <c r="H3" s="19">
@@ -4146,15 +4262,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D4" s="18">
         <v>100</v>
@@ -4177,15 +4293,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D5" s="18">
         <v>100</v>
@@ -4208,15 +4324,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D6" s="18">
         <v>100</v>
@@ -4239,15 +4355,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D7" s="18">
         <v>100</v>
@@ -4270,15 +4386,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D8" s="18">
         <v>100</v>
@@ -4301,15 +4417,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="D9" s="18">
         <v>100</v>
@@ -4332,15 +4448,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="D10" s="18">
         <v>100</v>
@@ -4363,15 +4479,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D11" s="18">
         <v>100</v>
@@ -4394,15 +4510,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D12" s="18">
         <v>100</v>
@@ -4425,15 +4541,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D13" s="18">
         <v>100</v>
@@ -4456,15 +4572,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D14" s="18">
         <v>100</v>
@@ -4487,15 +4603,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D15" s="18">
         <v>100</v>
@@ -4518,15 +4634,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="D16" s="18">
         <v>100</v>
@@ -4549,15 +4665,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D17" s="18">
         <v>100</v>
@@ -4580,15 +4696,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D18" s="18">
         <v>100</v>
@@ -4611,15 +4727,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D19" s="18">
         <v>100</v>
@@ -4642,15 +4758,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="D20" s="18">
         <v>100</v>
@@ -4673,15 +4789,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D21" s="18">
         <v>100</v>
@@ -4704,15 +4820,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="D22" s="18">
         <v>100</v>
@@ -4735,15 +4851,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D23" s="18">
         <v>100</v>
@@ -4766,15 +4882,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D24" s="18">
         <v>100</v>
@@ -4797,15 +4913,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D25" s="18">
         <v>100</v>
@@ -4828,15 +4944,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D26" s="18">
         <v>100</v>
@@ -4859,15 +4975,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D27" s="18">
         <v>100</v>
@@ -4890,15 +5006,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D28" s="18">
         <v>100</v>
@@ -4921,15 +5037,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D29" s="18">
         <v>100</v>
@@ -4952,15 +5068,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D30" s="18">
         <v>100</v>
@@ -4983,15 +5099,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="D31" s="18">
         <v>100</v>
@@ -5014,15 +5130,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D32" s="18">
         <v>100</v>
@@ -5045,15 +5161,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D33" s="18">
         <v>100</v>
@@ -5076,15 +5192,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D34" s="18">
         <v>100</v>
@@ -5097,7 +5213,7 @@
         <v>1067900</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G34:G65" si="3">IF(E34,120%,100%)*F34</f>
         <v>1281480</v>
       </c>
       <c r="H34" s="19">
@@ -5107,15 +5223,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="D35" s="18">
         <v>100</v>
@@ -5128,7 +5244,7 @@
         <v>1675800</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2010960</v>
       </c>
       <c r="H35" s="19">
@@ -5138,15 +5254,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D36" s="18">
         <v>100</v>
@@ -5159,7 +5275,7 @@
         <v>1067900</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1281480</v>
       </c>
       <c r="H36" s="19">
@@ -5169,15 +5285,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D37" s="18">
         <v>100</v>
@@ -5190,7 +5306,7 @@
         <v>2239600</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2687520</v>
       </c>
       <c r="H37" s="19">
@@ -5200,15 +5316,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D38" s="18">
         <v>100</v>
@@ -5221,7 +5337,7 @@
         <v>2281700</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2738040</v>
       </c>
       <c r="H38" s="19">
@@ -5231,15 +5347,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D39" s="18">
         <v>100</v>
@@ -5252,7 +5368,7 @@
         <v>2239600</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2687520</v>
       </c>
       <c r="H39" s="19">
@@ -5262,15 +5378,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D40" s="18">
         <v>100</v>
@@ -5283,7 +5399,7 @@
         <v>966400</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1159680</v>
       </c>
       <c r="H40" s="19">
@@ -5293,15 +5409,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D41" s="18">
         <v>100</v>
@@ -5314,7 +5430,7 @@
         <v>2219500</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2663400</v>
       </c>
       <c r="H41" s="19">
@@ -5324,15 +5440,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D42" s="18">
         <v>100</v>
@@ -5345,7 +5461,7 @@
         <v>2032200</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2438640</v>
       </c>
       <c r="H42" s="19">
@@ -5355,15 +5471,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D43" s="18">
         <v>100</v>
@@ -5376,7 +5492,7 @@
         <v>2219500</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2663400</v>
       </c>
       <c r="H43" s="19">
@@ -5386,15 +5502,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D44" s="18">
         <v>100</v>
@@ -5407,7 +5523,7 @@
         <v>966400</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1159680</v>
       </c>
       <c r="H44" s="19">
@@ -5417,15 +5533,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D45" s="18">
         <v>100</v>
@@ -5438,7 +5554,7 @@
         <v>2219500</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2663400</v>
       </c>
       <c r="H45" s="19">
@@ -5448,15 +5564,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="D46" s="18">
         <v>100</v>
@@ -5469,7 +5585,7 @@
         <v>1675800</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2010960</v>
       </c>
       <c r="H46" s="19">
@@ -5479,15 +5595,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D47" s="18">
         <v>100</v>
@@ -5500,7 +5616,7 @@
         <v>2239600</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2687520</v>
       </c>
       <c r="H47" s="19">
@@ -5510,15 +5626,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="D48" s="18">
         <v>100</v>
@@ -5531,7 +5647,7 @@
         <v>1675800</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2010960</v>
       </c>
       <c r="H48" s="19">
@@ -5541,15 +5657,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D49" s="18">
         <v>100</v>
@@ -5562,7 +5678,7 @@
         <v>2032200</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2438640</v>
       </c>
       <c r="H49" s="19">
@@ -5572,15 +5688,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D50" s="18">
         <v>100</v>
@@ -5593,7 +5709,7 @@
         <v>2239600</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2687520</v>
       </c>
       <c r="H50" s="19">
@@ -5603,15 +5719,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D51" s="18">
         <v>100</v>
@@ -5624,7 +5740,7 @@
         <v>2239600</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2687520</v>
       </c>
       <c r="H51" s="19">
@@ -5634,15 +5750,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D52" s="18">
         <v>100</v>
@@ -5655,7 +5771,7 @@
         <v>966400</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1159680</v>
       </c>
       <c r="H52" s="19">
@@ -5665,15 +5781,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D53" s="18">
         <v>100</v>
@@ -5686,7 +5802,7 @@
         <v>2281700</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2738040</v>
       </c>
       <c r="H53" s="19">
@@ -5696,15 +5812,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D54" s="18">
         <v>100</v>
@@ -5717,7 +5833,7 @@
         <v>966400</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1159680</v>
       </c>
       <c r="H54" s="19">
@@ -5727,15 +5843,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D55" s="18">
         <v>100</v>
@@ -5748,7 +5864,7 @@
         <v>2219500</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2663400</v>
       </c>
       <c r="H55" s="19">
@@ -5758,15 +5874,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D56" s="18">
         <v>100</v>
@@ -5779,7 +5895,7 @@
         <v>2239600</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2687520</v>
       </c>
       <c r="H56" s="19">
@@ -5789,15 +5905,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D57" s="18">
         <v>100</v>
@@ -5810,7 +5926,7 @@
         <v>2219500</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2663400</v>
       </c>
       <c r="H57" s="19">
@@ -5820,15 +5936,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="D58" s="18">
         <v>100</v>
@@ -5841,7 +5957,7 @@
         <v>1675800</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2010960</v>
       </c>
       <c r="H58" s="19">
@@ -5851,15 +5967,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D59" s="18">
         <v>100</v>
@@ -5872,7 +5988,7 @@
         <v>966400</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1159680</v>
       </c>
       <c r="H59" s="19">
@@ -5882,15 +5998,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D60" s="18">
         <v>100</v>
@@ -5903,7 +6019,7 @@
         <v>1067900</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1281480</v>
       </c>
       <c r="H60" s="19">
@@ -5913,15 +6029,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D61" s="18">
         <v>100</v>
@@ -5934,7 +6050,7 @@
         <v>2281700</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2738040</v>
       </c>
       <c r="H61" s="19">
@@ -5944,15 +6060,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D62" s="18">
         <v>100</v>
@@ -5965,7 +6081,7 @@
         <v>966400</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1159680</v>
       </c>
       <c r="H62" s="19">
@@ -5975,15 +6091,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D63" s="18">
         <v>100</v>
@@ -5996,7 +6112,7 @@
         <v>2219500</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2663400</v>
       </c>
       <c r="H63" s="19">
@@ -6006,15 +6122,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D64" s="18">
         <v>100</v>
@@ -6027,7 +6143,7 @@
         <v>2239600</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2687520</v>
       </c>
       <c r="H64" s="19">
@@ -6037,39 +6153,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="21">
         <v>0.05</v>
       </c>
@@ -6101,7 +6217,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="21">
         <v>0.1</v>
       </c>
@@ -6133,7 +6249,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="21">
         <v>0.25</v>
       </c>
@@ -6165,7 +6281,7 @@
         <v>33700</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="21">
         <v>0.5</v>
       </c>
@@ -6197,7 +6313,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="21">
         <v>1</v>
       </c>
@@ -6229,7 +6345,7 @@
         <v>60800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="21">
         <v>1.5</v>
       </c>
@@ -6261,7 +6377,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="21">
         <v>2</v>
       </c>
@@ -6293,9 +6409,9 @@
         <v>86500</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C75" s="14">
         <v>1800</v>
@@ -6327,68 +6443,73 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA83F734-B3A3-4889-95EE-26F43AC71924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="6" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F2" s="21">
         <v>90</v>
@@ -6397,21 +6518,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="F3" s="21">
         <v>78</v>
@@ -6420,21 +6541,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="F4" s="21">
         <v>26</v>
@@ -6443,21 +6564,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F5" s="21">
         <v>23</v>
@@ -6466,21 +6587,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F6" s="21">
         <v>97</v>
@@ -6489,21 +6610,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="F7" s="21">
         <v>16</v>
@@ -6512,21 +6633,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F8" s="21">
         <v>86</v>
@@ -6535,21 +6656,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F9" s="21">
         <v>55</v>
@@ -6558,21 +6679,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="F10" s="21">
         <v>75</v>
@@ -6581,21 +6702,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F11" s="21">
         <v>67</v>
@@ -6604,21 +6725,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F12" s="21">
         <v>77</v>
@@ -6627,21 +6748,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F13" s="21">
         <v>98</v>
@@ -6650,21 +6771,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F14" s="21">
         <v>94</v>
@@ -6673,21 +6794,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="F15" s="21">
         <v>21</v>
@@ -6696,21 +6817,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F16" s="21">
         <v>50</v>
@@ -6719,44 +6840,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="G17" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F18" s="21">
         <v>65</v>
@@ -6765,21 +6886,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="F19" s="21">
         <v>32</v>
@@ -6788,21 +6909,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="F20" s="21">
         <v>76</v>
@@ -6811,21 +6932,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F21" s="21">
         <v>81</v>
@@ -6834,44 +6955,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G22" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="F23" s="21">
         <v>20</v>
@@ -6880,21 +7001,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F24" s="21">
         <v>18</v>
@@ -6903,21 +7024,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="F25" s="22">
         <v>44848</v>
@@ -6926,44 +7047,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="G26" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F27" s="21">
         <v>3</v>
@@ -6972,21 +7093,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F28" s="22">
         <v>44656</v>
@@ -6995,21 +7116,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F29" s="21">
         <v>95</v>
@@ -7018,44 +7139,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="G30" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="F31" s="21">
         <v>36</v>
@@ -7064,21 +7185,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="F32" s="21">
         <v>17</v>
@@ -7087,21 +7208,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F33" s="21">
         <v>57</v>
@@ -7110,44 +7231,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="G34" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F35" s="21">
         <v>60</v>
@@ -7156,21 +7277,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F36" s="21">
         <v>30</v>
@@ -7179,21 +7300,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F37" s="21">
         <v>66</v>
@@ -7202,21 +7323,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="F38" s="21">
         <v>25</v>
@@ -7225,21 +7346,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F39" s="21">
         <v>31</v>
@@ -7248,44 +7369,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="G40" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F41" s="21">
         <v>7</v>
@@ -7294,44 +7415,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G42" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F43" s="21">
         <v>8</v>
@@ -7340,21 +7461,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F44" s="21">
         <v>59</v>
@@ -7363,21 +7484,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F45" s="21">
         <v>35</v>
@@ -7386,21 +7507,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F46" s="21">
         <v>56</v>
@@ -7409,21 +7530,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F47" s="21">
         <v>47</v>
@@ -7432,67 +7553,67 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G48" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G49" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F50" s="22">
         <v>44563</v>
@@ -7501,21 +7622,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F51" s="21">
         <v>48</v>
@@ -7524,21 +7645,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F52" s="21">
         <v>96</v>
@@ -7547,21 +7668,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="F53" s="21">
         <v>34</v>
@@ -7570,21 +7691,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F54" s="21">
         <v>80</v>
@@ -7593,21 +7714,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F55" s="21">
         <v>6</v>
@@ -7616,21 +7737,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F56" s="21">
         <v>24</v>
@@ -7639,44 +7760,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="G57" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F58" s="21">
         <v>49</v>
@@ -7685,21 +7806,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F59" s="21">
         <v>84</v>
@@ -7708,21 +7829,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F60" s="21">
         <v>87</v>
@@ -7731,21 +7852,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="F61" s="21">
         <v>22</v>
@@ -7754,21 +7875,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F62" s="21">
         <v>85</v>
@@ -7777,21 +7898,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F63" s="21">
         <v>15</v>
@@ -7800,21 +7921,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F64" s="21">
         <v>33</v>
@@ -7823,60 +7944,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Excels/vietstar.xlsx
+++ b/Excels/vietstar.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z\Excel\pricing\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1562CACA-94C4-4B1D-A0AB-0A30F78EFCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Vietstar Calculator" sheetId="1" r:id="rId1"/>
@@ -18,28 +12,19 @@
     <sheet name="HCM" sheetId="3" r:id="rId3"/>
     <sheet name="Province Master Data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <webPublishing codePage="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="125725"/>
+  <webPublishing/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>PC</author>
   </authors>
   <commentList>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,577 +42,573 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="168">
+  <si>
+    <t>Kon Tum</t>
+  </si>
+  <si>
+    <t>Tiền Giang</t>
+  </si>
+  <si>
+    <t>TP Vĩnh Yên</t>
+  </si>
+  <si>
+    <t>Bình Thuận</t>
+  </si>
+  <si>
+    <t>TP Buôn Ma Thuột</t>
+  </si>
+  <si>
+    <t>Mã Vùng (HY)</t>
+  </si>
+  <si>
+    <t>TP Yên Bái</t>
+  </si>
+  <si>
+    <t>Formular HCM</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t>Bến Tre</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>Thành phố</t>
+  </si>
+  <si>
+    <t>TP Thái Bình</t>
+  </si>
+  <si>
+    <t>Next 0.5</t>
+  </si>
+  <si>
+    <t>TP Bắc Kạn</t>
+  </si>
+  <si>
+    <t>Mã Vùng</t>
+  </si>
+  <si>
+    <t>Yên Bái</t>
+  </si>
+  <si>
+    <t>TP Bạc Liêu</t>
+  </si>
+  <si>
+    <t>TP Lạng Sơn</t>
+  </si>
+  <si>
+    <t>TP Điện Biên Phủ</t>
+  </si>
+  <si>
+    <t>Lâm Đồng</t>
+  </si>
+  <si>
+    <t>40-42</t>
+  </si>
+  <si>
+    <t>TP Vị Thanh</t>
+  </si>
+  <si>
+    <t>Thái Nguyên</t>
+  </si>
+  <si>
+    <t>TP Phan Thiết</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>TP Ninh Bình</t>
+  </si>
+  <si>
+    <t>TP Đồng Xoài</t>
+  </si>
+  <si>
+    <t>TP Bắc Ninh</t>
+  </si>
+  <si>
+    <t>TP Gia Nghĩa</t>
+  </si>
+  <si>
+    <t>Đồng Tháp</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>53-54</t>
+  </si>
+  <si>
+    <t>Lai Châu</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>TP Lai Châu</t>
+  </si>
+  <si>
+    <t>Formular HY</t>
+  </si>
+  <si>
+    <t>Khánh Hòa</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Quận Hồng Bàng</t>
+  </si>
+  <si>
+    <t>HY ĐI CÁC TỈNH</t>
+  </si>
+  <si>
+    <t>Bình Phước</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>TP Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>TP Kon Tum</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Mã Vùng (HCM)</t>
+  </si>
+  <si>
+    <t>Tổng chí phí VC</t>
+  </si>
+  <si>
+    <t>TP Hải Dương</t>
+  </si>
+  <si>
+    <t>Quảng Ninh</t>
+  </si>
+  <si>
+    <t>TP Thái Nguyên</t>
+  </si>
+  <si>
+    <t>TP Bà Rịa</t>
+  </si>
+  <si>
+    <t>TP Sơn La</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>TP Nha Trang</t>
+  </si>
+  <si>
+    <t>Cà Mau</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Gia Lai</t>
+  </si>
+  <si>
+    <t>TP Đà Lạt</t>
+  </si>
+  <si>
+    <t>Hậu Giang</t>
+  </si>
+  <si>
+    <t>Vùng</t>
+  </si>
+  <si>
+    <t>TP Đà Nẵng</t>
+  </si>
+  <si>
+    <t>TP Quy Nhơn</t>
+  </si>
+  <si>
+    <t>TP Trà Vinh</t>
+  </si>
+  <si>
+    <t>Bạc Liêu</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>TP Cà Mau</t>
+  </si>
+  <si>
+    <t>Các quận nội thành</t>
+  </si>
+  <si>
+    <t>Bà Rịa – Vũng Tàu</t>
+  </si>
+  <si>
+    <t>Trà Vinh</t>
+  </si>
+  <si>
+    <t>Next 0.5 kg</t>
+  </si>
+  <si>
+    <t>TP Tam Kỳ</t>
+  </si>
+  <si>
+    <t>TP Tân An</t>
+  </si>
+  <si>
+    <t>Vĩnh Long</t>
+  </si>
+  <si>
+    <t>TP Bắc Giang</t>
+  </si>
+  <si>
+    <t>TP Sóc Trăng</t>
+  </si>
+  <si>
+    <t>Hà Giang</t>
+  </si>
   <si>
     <t>Tuyên Quang</t>
   </si>
   <si>
-    <t>TP Lạng Sơn</t>
+    <t>Kiên Giang</t>
+  </si>
+  <si>
+    <t>TP Long Xuyên</t>
+  </si>
+  <si>
+    <t>TP Phủ Lý</t>
+  </si>
+  <si>
+    <t>TP Mỹ Tho</t>
+  </si>
+  <si>
+    <t>TP Tuy Hòa</t>
+  </si>
+  <si>
+    <t>Đắk Nông</t>
+  </si>
+  <si>
+    <t>TP Vinh</t>
+  </si>
+  <si>
+    <t>TP Pleiku</t>
+  </si>
+  <si>
+    <t>Bắc Kạn</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Ngoại thành</t>
+  </si>
+  <si>
+    <t>TP Biên Hòa</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Đắk Lắk</t>
+  </si>
+  <si>
+    <t>63-64</t>
+  </si>
+  <si>
+    <t>82-83</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>Quảng Bình</t>
+  </si>
+  <si>
+    <t>Formular HN</t>
+  </si>
+  <si>
+    <t>TP Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Tính phí VC</t>
+  </si>
+  <si>
+    <t>Điện Biên</t>
+  </si>
+  <si>
+    <t>61-62</t>
+  </si>
+  <si>
+    <t>TP Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>TP Tây Ninh</t>
+  </si>
+  <si>
+    <t>Chi phí VC cơ sở</t>
+  </si>
+  <si>
+    <t>Hà Nam</t>
+  </si>
+  <si>
+    <t>Bắc Giang</t>
+  </si>
+  <si>
+    <t>91-92</t>
+  </si>
+  <si>
+    <t>45-46</t>
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t>Lạng Sơn</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>TP Cao Lãnh</t>
+  </si>
+  <si>
+    <t>Mã bưu chính</t>
+  </si>
+  <si>
+    <t>Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t>TP Hạ Long</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>CPN (giờ)</t>
+  </si>
+  <si>
+    <t>TP Bến Tre</t>
+  </si>
+  <si>
+    <t>Phú Yên</t>
+  </si>
+  <si>
+    <t>Trả hàng ngoại thành</t>
+  </si>
+  <si>
+    <t>TP Nam Định</t>
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t>Hòa Bình</t>
+  </si>
+  <si>
+    <t>TP Hà Giang</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>TP Việt Trì</t>
+  </si>
+  <si>
+    <t>TP Hòa Bình</t>
+  </si>
+  <si>
+    <t>TP Đồng Hới</t>
+  </si>
+  <si>
+    <t>Đồng Nai</t>
+  </si>
+  <si>
+    <t>Cao Bằng</t>
+  </si>
+  <si>
+    <t>Lào Cai</t>
+  </si>
+  <si>
+    <t>Hải Dương</t>
+  </si>
+  <si>
+    <t>Tây Ninh</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>TP Phan Rang–Tháp Chàm</t>
   </si>
   <si>
     <t>TP Huế</t>
   </si>
   <si>
+    <t>TP Lào Cai</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>TP Đông Hà</t>
+  </si>
+  <si>
+    <t>TP Hưng Yên</t>
+  </si>
+  <si>
+    <t>TP Thủ Dầu Một</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>43-44</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Quảng Trị</t>
+  </si>
+  <si>
+    <t>TP Rạch Giá</t>
+  </si>
+  <si>
+    <t>TP Vĩnh Long</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t>TP Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Sơn La</t>
+  </si>
+  <si>
+    <t>Bình Định</t>
+  </si>
+  <si>
+    <t>51-52</t>
+  </si>
+  <si>
+    <t>TP Cần Thơ</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
     <t>Sóc Trăng</t>
   </si>
   <si>
-    <t>Thanh Hóa</t>
-  </si>
-  <si>
-    <t>Đà Nẵng</t>
-  </si>
-  <si>
-    <t>TP Điện Biên Phủ</t>
-  </si>
-  <si>
-    <t>TP Phan Thiết</t>
-  </si>
-  <si>
-    <t>70-74</t>
-  </si>
-  <si>
-    <t>Bình Định</t>
-  </si>
-  <si>
-    <t>TP Tuyên Quang</t>
-  </si>
-  <si>
-    <t>Mã Vùng (HY)</t>
+    <t>Phú Thọ</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Khu vực trả hàng</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>TP Cao Bằng</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>Đường bộ (ngày)</t>
   </si>
   <si>
     <t>HCM ĐI CÁC TỈNH</t>
-  </si>
-  <si>
-    <t>TP Mỹ Tho</t>
-  </si>
-  <si>
-    <t>Cà Mau</t>
-  </si>
-  <si>
-    <t>Bắc Kạn</t>
-  </si>
-  <si>
-    <t>Vĩnh Long</t>
-  </si>
-  <si>
-    <t>Thái Bình</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>TP Đà Nẵng</t>
-  </si>
-  <si>
-    <t>TP Bắc Kạn</t>
-  </si>
-  <si>
-    <t>TP Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>Mã bưu chính</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>61-62</t>
-  </si>
-  <si>
-    <t>Hà Tĩnh</t>
-  </si>
-  <si>
-    <t>TP Yên Bái</t>
-  </si>
-  <si>
-    <t>TP Thanh Hóa</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Kon Tum</t>
-  </si>
-  <si>
-    <t>Bà Rịa – Vũng Tàu</t>
-  </si>
-  <si>
-    <t>Vùng</t>
-  </si>
-  <si>
-    <t>82-83</t>
-  </si>
-  <si>
-    <t>Cao Bằng</t>
-  </si>
-  <si>
-    <t>Trả hàng ngoại thành</t>
-  </si>
-  <si>
-    <t>Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Nam Định</t>
-  </si>
-  <si>
-    <t>Quảng Ninh</t>
-  </si>
-  <si>
-    <t>Hậu Giang</t>
-  </si>
-  <si>
-    <t>Đồng Nai</t>
-  </si>
-  <si>
-    <t>Khánh Hòa</t>
-  </si>
-  <si>
-    <t>Hà Nam</t>
-  </si>
-  <si>
-    <t>Kiên Giang</t>
-  </si>
-  <si>
-    <t>TP Tân An</t>
-  </si>
-  <si>
-    <t>Tây Ninh</t>
-  </si>
-  <si>
-    <t>TP Trà Vinh</t>
-  </si>
-  <si>
-    <t>Phú Thọ</t>
-  </si>
-  <si>
-    <t>Tổng chí phí VC</t>
-  </si>
-  <si>
-    <t>Đắk Nông</t>
-  </si>
-  <si>
-    <t>Cần Thơ</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Mã Vùng</t>
-  </si>
-  <si>
-    <t>Sơn La</t>
-  </si>
-  <si>
-    <t>TP Cà Mau</t>
-  </si>
-  <si>
-    <t>TP Hưng Yên</t>
-  </si>
-  <si>
-    <t>Formular HY</t>
-  </si>
-  <si>
-    <t>Yên Bái</t>
-  </si>
-  <si>
-    <t>TP Cao Bằng</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>TP Pleiku</t>
-  </si>
-  <si>
-    <t>TP Gia Nghĩa</t>
-  </si>
-  <si>
-    <t>Lạng Sơn</t>
-  </si>
-  <si>
-    <t>TP Long Xuyên</t>
-  </si>
-  <si>
-    <t>TP Phan Rang–Tháp Chàm</t>
-  </si>
-  <si>
-    <t>Next 0.5 kg</t>
-  </si>
-  <si>
-    <t>Khu vực trả hàng</t>
-  </si>
-  <si>
-    <t>TP Ninh Bình</t>
-  </si>
-  <si>
-    <t>TP Hà Tĩnh</t>
-  </si>
-  <si>
-    <t>63-64</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Lào Cai</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Ninh Thuận</t>
-  </si>
-  <si>
-    <t>Mã Vùng (HCM)</t>
-  </si>
-  <si>
-    <t>Lai Châu</t>
-  </si>
-  <si>
-    <t>TP Bà Rịa</t>
-  </si>
-  <si>
-    <t>TP Buôn Ma Thuột</t>
-  </si>
-  <si>
-    <t>Thành phố</t>
-  </si>
-  <si>
-    <t>Formular HCM</t>
-  </si>
-  <si>
-    <t>TP Lào Cai</t>
-  </si>
-  <si>
-    <t>TP Sơn La</t>
-  </si>
-  <si>
-    <t>Đồng Tháp</t>
-  </si>
-  <si>
-    <t>Phú Yên</t>
-  </si>
-  <si>
-    <t>Bến Tre</t>
-  </si>
-  <si>
-    <t>TP Việt Trì</t>
-  </si>
-  <si>
-    <t>Nghệ An</t>
-  </si>
-  <si>
-    <t>TP Đông Hà</t>
-  </si>
-  <si>
-    <t>Gia Lai</t>
-  </si>
-  <si>
-    <t>TP Cần Thơ</t>
-  </si>
-  <si>
-    <t>Thái Nguyên</t>
-  </si>
-  <si>
-    <t>TP Rạch Giá</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>TP Bến Tre</t>
-  </si>
-  <si>
-    <t>Bình Dương</t>
-  </si>
-  <si>
-    <t>Hưng Yên</t>
-  </si>
-  <si>
-    <t>Ninh Bình</t>
-  </si>
-  <si>
-    <t>TP Nha Trang</t>
-  </si>
-  <si>
-    <t>45-46</t>
-  </si>
-  <si>
-    <t>Formular HN</t>
-  </si>
-  <si>
-    <t>Quận Hồng Bàng</t>
-  </si>
-  <si>
-    <t>TP Cao Lãnh</t>
-  </si>
-  <si>
-    <t>TP Hải Dương</t>
-  </si>
-  <si>
-    <t>91-92</t>
-  </si>
-  <si>
-    <t>Đường bộ (ngày)</t>
-  </si>
-  <si>
-    <t>Vĩnh Phúc</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>HY ĐI CÁC TỈNH</t>
-  </si>
-  <si>
-    <t>Tính phí VC</t>
-  </si>
-  <si>
-    <t>40-42</t>
-  </si>
-  <si>
-    <t>Đắk Lắk</t>
-  </si>
-  <si>
-    <t>Lâm Đồng</t>
-  </si>
-  <si>
-    <t>TP Thủ Dầu Một</t>
-  </si>
-  <si>
-    <t>Quảng Nam</t>
-  </si>
-  <si>
-    <t>Quảng Trị</t>
-  </si>
-  <si>
-    <t>TP Hòa Bình</t>
-  </si>
-  <si>
-    <t>TP Đà Lạt</t>
-  </si>
-  <si>
-    <t>TP Sóc Trăng</t>
-  </si>
-  <si>
-    <t>TP Biên Hòa</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t>Hải Phòng</t>
-  </si>
-  <si>
-    <t>TP Đồng Hới</t>
-  </si>
-  <si>
-    <t>Hòa Bình</t>
-  </si>
-  <si>
-    <t>TP Bắc Ninh</t>
-  </si>
-  <si>
-    <t>Điện Biên</t>
-  </si>
-  <si>
-    <t>TP Tuy Hòa</t>
-  </si>
-  <si>
-    <t>TP Vinh</t>
-  </si>
-  <si>
-    <t>TP Nam Định</t>
-  </si>
-  <si>
-    <t>Bình Thuận</t>
-  </si>
-  <si>
-    <t>TP Phủ Lý</t>
-  </si>
-  <si>
-    <t>Bắc Ninh</t>
-  </si>
-  <si>
-    <t>Ngoại thành</t>
-  </si>
-  <si>
-    <t>TP Vĩnh Long</t>
-  </si>
-  <si>
-    <t>Chi phí VC cơ sở</t>
-  </si>
-  <si>
-    <t>Long An</t>
-  </si>
-  <si>
-    <t>Quảng Bình</t>
-  </si>
-  <si>
-    <t>51-52</t>
-  </si>
-  <si>
-    <t>TP Hà Giang</t>
-  </si>
-  <si>
-    <t>TP Bạc Liêu</t>
-  </si>
-  <si>
-    <t>Hà Giang</t>
-  </si>
-  <si>
-    <t>Tiền Giang</t>
-  </si>
-  <si>
-    <t>TP Quy Nhơn</t>
-  </si>
-  <si>
-    <t>TP Thái Nguyên</t>
-  </si>
-  <si>
-    <t>TP Kon Tum</t>
-  </si>
-  <si>
-    <t>TP Lai Châu</t>
-  </si>
-  <si>
-    <t>CPN (giờ)</t>
-  </si>
-  <si>
-    <t>TP Bắc Giang</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>TP Tam Kỳ</t>
-  </si>
-  <si>
-    <t>TP Thái Bình</t>
-  </si>
-  <si>
-    <t>Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>Next 0.5</t>
-  </si>
-  <si>
-    <t>Trà Vinh</t>
-  </si>
-  <si>
-    <t>Bình Phước</t>
-  </si>
-  <si>
-    <t>Các quận nội thành</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Bắc Giang</t>
-  </si>
-  <si>
-    <t>Hải Dương</t>
-  </si>
-  <si>
-    <t>43-44</t>
-  </si>
-  <si>
-    <t>53-54</t>
-  </si>
-  <si>
-    <t>TP Vĩnh Yên</t>
-  </si>
-  <si>
-    <t>An Giang</t>
-  </si>
-  <si>
-    <t>TP Đồng Xoài</t>
-  </si>
-  <si>
-    <t>TP Hạ Long</t>
-  </si>
-  <si>
-    <t>TP Tây Ninh</t>
-  </si>
-  <si>
-    <t>Bạc Liêu</t>
-  </si>
-  <si>
-    <t>TP Vị Thanh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -679,8 +660,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
@@ -690,15 +713,141 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,13 +877,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -746,23 +895,82 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1062,30 +1270,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A4">
+      <selection pane="topLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.571428571428571" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
     <col min="4" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.5703125" style="1"/>
+    <col min="10" max="11" width="8" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.142857142857142" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.285714285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.428571428571429" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.571428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
@@ -1097,39 +1304,39 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" s="21">
         <v>0.05</v>
       </c>
@@ -1161,7 +1368,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="21">
         <v>0.1</v>
       </c>
@@ -1193,7 +1400,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="21">
         <v>0.25</v>
       </c>
@@ -1225,7 +1432,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="21">
         <v>0.5</v>
       </c>
@@ -1257,7 +1464,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="21">
         <v>1</v>
       </c>
@@ -1289,7 +1496,7 @@
         <v>50600</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="21">
         <v>1.5</v>
       </c>
@@ -1321,7 +1528,7 @@
         <v>66200</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="21">
         <v>2</v>
       </c>
@@ -1353,9 +1560,9 @@
         <v>71400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B10" s="14">
         <v>2100</v>
@@ -1385,44 +1592,44 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="12.75" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="21">
         <v>0.05</v>
       </c>
@@ -1454,7 +1661,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="21">
         <v>0.1</v>
       </c>
@@ -1486,7 +1693,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" s="21">
         <v>0.25</v>
       </c>
@@ -1518,7 +1725,7 @@
         <v>33700</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" s="21">
         <v>0.5</v>
       </c>
@@ -1550,7 +1757,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="21">
         <v>1</v>
       </c>
@@ -1582,7 +1789,7 @@
         <v>60800</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
       <c r="A19" s="21">
         <v>1.5</v>
       </c>
@@ -1614,7 +1821,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
       <c r="A20" s="21">
         <v>2</v>
       </c>
@@ -1646,9 +1853,9 @@
         <v>86500</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="B21" s="14">
         <v>1800</v>
@@ -1678,32 +1885,32 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" s="13" customFormat="1" spans="1:256" ht="12.75" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1">
       <c r="A24" s="23" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C24" s="16">
         <v>5</v>
@@ -1712,20 +1919,20 @@
         <v>1</v>
       </c>
       <c r="E24" s="14">
-        <f>INDEX($B$3:$J$9,MATCH(IF(C24&gt;2,2,C24),$A$3:$A$9,1),MATCH(B24,$B$2:$J$2,1))+IF(C24&gt;2,ROUNDUP((C24-2)/0.5,0)*HLOOKUP(B24,$B$2:$J$10,9,FALSE),0)</f>
+        <f ca="1">INDEX($B$3:$J$9,MATCH(IF(C24&gt;2,2,C24),$A$3:$A$9,1),MATCH(B24,$B$2:$J$2,1))+IF(C24&gt;2,ROUNDUP((C24-2)/0.5,0)*HLOOKUP(B24,$B$2:$J$10,9,FALSE),0)</f>
         <v>30600</v>
       </c>
       <c r="F24" s="17">
-        <f t="shared" ref="F24:F29" si="0">IF(D24,120%,100%)*E24</f>
+        <f ca="1">IF(D24,120%,100%)*E24</f>
         <v>36720</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1">
       <c r="A25" s="23" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C25" s="16">
         <v>5</v>
@@ -1734,20 +1941,20 @@
         <v>1</v>
       </c>
       <c r="E25" s="14">
-        <f>INDEX($B$14:$J$20,MATCH(IF(C25&gt;2,2,C25),$A$14:$A$20,1),MATCH(B25,$B$13:$J$13,1))+IF(C25&gt;2,ROUNDUP((C25-2)/0.5,0)*HLOOKUP(B25,$B$13:$J$21,9,FALSE),0)</f>
+        <f ca="1">INDEX($B$14:$J$20,MATCH(IF(C25&gt;2,2,C25),$A$14:$A$20,1),MATCH(B25,$B$13:$J$13,1))+IF(C25&gt;2,ROUNDUP((C25-2)/0.5,0)*HLOOKUP(B25,$B$13:$J$21,9,FALSE),0)</f>
         <v>29700</v>
       </c>
       <c r="F25" s="17">
-        <f t="shared" si="0"/>
+        <f ca="1">IF(D25,120%,100%)*E25</f>
         <v>35640</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -1756,20 +1963,20 @@
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <f>INDEX($B$3:$J$9,MATCH(IF(C26&gt;2,2,C26),$A$3:$A$9,1),MATCH(B26,$B$2:$J$2,1))+IF(C26&gt;2,ROUNDUP((C26-2)/0.5,0)*HLOOKUP(B26,$B$2:$J$10,9,FALSE),0)</f>
+        <f ca="1">INDEX($B$3:$J$9,MATCH(IF(C26&gt;2,2,C26),$A$3:$A$9,1),MATCH(B26,$B$2:$J$2,1))+IF(C26&gt;2,ROUNDUP((C26-2)/0.5,0)*HLOOKUP(B26,$B$2:$J$10,9,FALSE),0)</f>
         <v>30600</v>
       </c>
       <c r="F26" s="17">
-        <f t="shared" si="0"/>
+        <f ca="1">IF(D26,120%,100%)*E26</f>
         <v>36720</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
@@ -1778,20 +1985,20 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <f>INDEX($B$3:$J$9,MATCH(IF(C27&gt;2,2,C27),$A$3:$A$9,1),MATCH(B27,$B$2:$J$2,1))+IF(C27&gt;2,ROUNDUP((C27-2)/0.5,0)*HLOOKUP(B27,$B$2:$J$10,9,FALSE),0)</f>
+        <f ca="1">INDEX($B$3:$J$9,MATCH(IF(C27&gt;2,2,C27),$A$3:$A$9,1),MATCH(B27,$B$2:$J$2,1))+IF(C27&gt;2,ROUNDUP((C27-2)/0.5,0)*HLOOKUP(B27,$B$2:$J$10,9,FALSE),0)</f>
         <v>30600</v>
       </c>
       <c r="F27" s="17">
-        <f t="shared" si="0"/>
+        <f ca="1">IF(D27,120%,100%)*E27</f>
         <v>36720</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C28" s="3">
         <v>5</v>
@@ -1800,20 +2007,20 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <f>INDEX($B$3:$J$9,MATCH(IF(C28&gt;2,2,C28),$A$3:$A$9,1),MATCH(B28,$B$2:$J$2,1))+IF(C28&gt;2,ROUNDUP((C28-2)/0.5,0)*HLOOKUP(B28,$B$2:$J$10,9,FALSE),0)</f>
+        <f ca="1">INDEX($B$3:$J$9,MATCH(IF(C28&gt;2,2,C28),$A$3:$A$9,1),MATCH(B28,$B$2:$J$2,1))+IF(C28&gt;2,ROUNDUP((C28-2)/0.5,0)*HLOOKUP(B28,$B$2:$J$10,9,FALSE),0)</f>
         <v>30600</v>
       </c>
       <c r="F28" s="17">
-        <f t="shared" si="0"/>
+        <f ca="1">IF(D28,120%,100%)*E28</f>
         <v>36720</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C29" s="3">
         <v>5</v>
@@ -1822,30 +2029,119 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <f>INDEX($B$3:$J$9,MATCH(IF(C29&gt;2,2,C29),$A$3:$A$9,1),MATCH(B29,$B$2:$J$2,1))+IF(C29&gt;2,ROUNDUP((C29-2)/0.5,0)*HLOOKUP(B29,$B$2:$J$10,9,FALSE),0)</f>
+        <f ca="1">INDEX($B$3:$J$9,MATCH(IF(C29&gt;2,2,C29),$A$3:$A$9,1),MATCH(B29,$B$2:$J$2,1))+IF(C29&gt;2,ROUNDUP((C29-2)/0.5,0)*HLOOKUP(B29,$B$2:$J$10,9,FALSE),0)</f>
         <v>30600</v>
       </c>
       <c r="F29" s="17">
-        <f t="shared" si="0"/>
+        <f ca="1">IF(D29,120%,100%)*E29</f>
         <v>36720</v>
       </c>
     </row>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <f ca="1">INDEX($B$3:$J$9,MATCH(IF(C30&gt;2,2,C30),$A$3:$A$9,1),MATCH(B30,$B$2:$J$2,1))+IF(C30&gt;2,ROUNDUP((C30-2)/0.5,0)*HLOOKUP(B30,$B$2:$J$10,9,FALSE),0)</f>
+        <v>30600</v>
+      </c>
+      <c r="F30" s="1">
+        <f ca="1">IF(D30,120%,100%)*E30</f>
+        <v>36720</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="3">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <f ca="1">INDEX($B$3:$J$9,MATCH(IF(C31&gt;2,2,C31),$A$3:$A$9,1),MATCH(B31,$B$2:$J$2,1))+IF(C31&gt;2,ROUNDUP((C31-2)/0.5,0)*HLOOKUP(B31,$B$2:$J$10,9,FALSE),0)</f>
+        <v>30600</v>
+      </c>
+      <c r="F31" s="1">
+        <f ca="1">IF(D31,120%,100%)*E31</f>
+        <v>36720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <f ca="1">INDEX($B$3:$J$9,MATCH(IF(C32&gt;2,2,C32),$A$3:$A$9,1),MATCH(B32,$B$2:$J$2,1))+IF(C32&gt;2,ROUNDUP((C32-2)/0.5,0)*HLOOKUP(B32,$B$2:$J$10,9,FALSE),0)</f>
+        <v>30600</v>
+      </c>
+      <c r="F32" s="1">
+        <f ca="1">IF(D32,120%,100%)*E32</f>
+        <v>36720</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <f ca="1">INDEX($B$3:$J$9,MATCH(IF(C33&gt;2,2,C33),$A$3:$A$9,1),MATCH(B33,$B$2:$J$2,1))+IF(C33&gt;2,ROUNDUP((C33-2)/0.5,0)*HLOOKUP(B33,$B$2:$J$10,9,FALSE),0)</f>
+        <v>30600</v>
+      </c>
+      <c r="F33" s="1">
+        <f ca="1">IF(D33,120%,100%)*E33</f>
+        <v>36720</v>
+      </c>
+    </row>
   </sheetData>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0" topLeftCell="A55">
+      <selection pane="topLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.571428571428571" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -1857,52 +2153,51 @@
     <col min="8" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="1"/>
+    <col min="13" max="14" width="8" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.142857142857142" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.285714285714286" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.428571428571429" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.571428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="13" customFormat="1" spans="1:256" ht="12.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D2" s="18">
         <v>1</v>
@@ -1911,11 +2206,11 @@
         <v>0</v>
       </c>
       <c r="F2" s="14">
-        <f t="shared" ref="F2:F33" si="0">INDEX($C$68:$K$74,MATCH(IF(D2&gt;2,2,D2),$B$68:$B$74,1),MATCH(C2,$C$67:$K$67,1))+IF(D2&gt;2,ROUNDUP((D2-2)/0.5,0)*HLOOKUP(C2,$C$67:$K$75,9,FALSE),0)</f>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D2&gt;2,2,D2),$B$68:$B$74,1),MATCH(C2,$C$67:$K$67,1))+IF(D2&gt;2,ROUNDUP((D2-2)/0.5,0)*HLOOKUP(C2,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G2" s="17">
-        <f t="shared" ref="G2:G33" si="1">IF(E2,120%,100%)*F2</f>
+        <f ca="1">IF(E2,120%,100%)*F2</f>
         <v>50600</v>
       </c>
       <c r="H2" s="19">
@@ -1928,15 +2223,15 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D3" s="18">
         <v>1</v>
@@ -1945,11 +2240,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D3&gt;2,2,D3),$B$68:$B$74,1),MATCH(C3,$C$67:$K$67,1))+IF(D3&gt;2,ROUNDUP((D3-2)/0.5,0)*HLOOKUP(C3,$C$67:$K$75,9,FALSE),0)</f>
         <v>47300</v>
       </c>
       <c r="G3" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E3,120%,100%)*F3</f>
         <v>47300</v>
       </c>
       <c r="H3" s="19">
@@ -1959,15 +2254,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D4" s="18">
         <v>1</v>
@@ -1976,11 +2271,11 @@
         <v>0</v>
       </c>
       <c r="F4" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D4&gt;2,2,D4),$B$68:$B$74,1),MATCH(C4,$C$67:$K$67,1))+IF(D4&gt;2,ROUNDUP((D4-2)/0.5,0)*HLOOKUP(C4,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E4,120%,100%)*F4</f>
         <v>50600</v>
       </c>
       <c r="H4" s="19">
@@ -1990,15 +2285,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
@@ -2007,11 +2302,11 @@
         <v>0</v>
       </c>
       <c r="F5" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D5&gt;2,2,D5),$B$68:$B$74,1),MATCH(C5,$C$67:$K$67,1))+IF(D5&gt;2,ROUNDUP((D5-2)/0.5,0)*HLOOKUP(C5,$C$67:$K$75,9,FALSE),0)</f>
         <v>35400</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E5,120%,100%)*F5</f>
         <v>35400</v>
       </c>
       <c r="H5" s="19">
@@ -2021,15 +2316,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
@@ -2038,11 +2333,11 @@
         <v>0</v>
       </c>
       <c r="F6" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D6&gt;2,2,D6),$B$68:$B$74,1),MATCH(C6,$C$67:$K$67,1))+IF(D6&gt;2,ROUNDUP((D6-2)/0.5,0)*HLOOKUP(C6,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G6" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E6,120%,100%)*F6</f>
         <v>50600</v>
       </c>
       <c r="H6" s="19">
@@ -2052,15 +2347,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
@@ -2069,11 +2364,11 @@
         <v>0</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D7&gt;2,2,D7),$B$68:$B$74,1),MATCH(C7,$C$67:$K$67,1))+IF(D7&gt;2,ROUNDUP((D7-2)/0.5,0)*HLOOKUP(C7,$C$67:$K$75,9,FALSE),0)</f>
         <v>35400</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E7,120%,100%)*F7</f>
         <v>35400</v>
       </c>
       <c r="H7" s="19">
@@ -2083,15 +2378,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -2100,11 +2395,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D8&gt;2,2,D8),$B$68:$B$74,1),MATCH(C8,$C$67:$K$67,1))+IF(D8&gt;2,ROUNDUP((D8-2)/0.5,0)*HLOOKUP(C8,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E8,120%,100%)*F8</f>
         <v>50600</v>
       </c>
       <c r="H8" s="19">
@@ -2114,15 +2409,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
@@ -2131,11 +2426,11 @@
         <v>0</v>
       </c>
       <c r="F9" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D9&gt;2,2,D9),$B$68:$B$74,1),MATCH(C9,$C$67:$K$67,1))+IF(D9&gt;2,ROUNDUP((D9-2)/0.5,0)*HLOOKUP(C9,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E9,120%,100%)*F9</f>
         <v>50600</v>
       </c>
       <c r="H9" s="19">
@@ -2145,15 +2440,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2162,11 +2457,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D10&gt;2,2,D10),$B$68:$B$74,1),MATCH(C10,$C$67:$K$67,1))+IF(D10&gt;2,ROUNDUP((D10-2)/0.5,0)*HLOOKUP(C10,$C$67:$K$75,9,FALSE),0)</f>
         <v>47300</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E10,120%,100%)*F10</f>
         <v>47300</v>
       </c>
       <c r="H10" s="19">
@@ -2176,15 +2471,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
@@ -2193,11 +2488,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D11&gt;2,2,D11),$B$68:$B$74,1),MATCH(C11,$C$67:$K$67,1))+IF(D11&gt;2,ROUNDUP((D11-2)/0.5,0)*HLOOKUP(C11,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E11,120%,100%)*F11</f>
         <v>50600</v>
       </c>
       <c r="H11" s="19">
@@ -2207,15 +2502,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D12" s="18">
         <v>1</v>
@@ -2224,11 +2519,11 @@
         <v>0</v>
       </c>
       <c r="F12" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D12&gt;2,2,D12),$B$68:$B$74,1),MATCH(C12,$C$67:$K$67,1))+IF(D12&gt;2,ROUNDUP((D12-2)/0.5,0)*HLOOKUP(C12,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E12,120%,100%)*F12</f>
         <v>50600</v>
       </c>
       <c r="H12" s="19">
@@ -2238,15 +2533,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
@@ -2255,11 +2550,11 @@
         <v>0</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D13&gt;2,2,D13),$B$68:$B$74,1),MATCH(C13,$C$67:$K$67,1))+IF(D13&gt;2,ROUNDUP((D13-2)/0.5,0)*HLOOKUP(C13,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E13,120%,100%)*F13</f>
         <v>50600</v>
       </c>
       <c r="H13" s="19">
@@ -2269,15 +2564,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
@@ -2286,11 +2581,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D14&gt;2,2,D14),$B$68:$B$74,1),MATCH(C14,$C$67:$K$67,1))+IF(D14&gt;2,ROUNDUP((D14-2)/0.5,0)*HLOOKUP(C14,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E14,120%,100%)*F14</f>
         <v>50600</v>
       </c>
       <c r="H14" s="19">
@@ -2300,15 +2595,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18">
         <v>1</v>
@@ -2317,11 +2612,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D15&gt;2,2,D15),$B$68:$B$74,1),MATCH(C15,$C$67:$K$67,1))+IF(D15&gt;2,ROUNDUP((D15-2)/0.5,0)*HLOOKUP(C15,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G15" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E15,120%,100%)*F15</f>
         <v>50600</v>
       </c>
       <c r="H15" s="19">
@@ -2331,15 +2626,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D16" s="18">
         <v>1</v>
@@ -2348,11 +2643,11 @@
         <v>0</v>
       </c>
       <c r="F16" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D16&gt;2,2,D16),$B$68:$B$74,1),MATCH(C16,$C$67:$K$67,1))+IF(D16&gt;2,ROUNDUP((D16-2)/0.5,0)*HLOOKUP(C16,$C$67:$K$75,9,FALSE),0)</f>
         <v>45200</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E16,120%,100%)*F16</f>
         <v>45200</v>
       </c>
       <c r="H16" s="19">
@@ -2362,15 +2657,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D17" s="18">
         <v>1</v>
@@ -2379,11 +2674,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D17&gt;2,2,D17),$B$68:$B$74,1),MATCH(C17,$C$67:$K$67,1))+IF(D17&gt;2,ROUNDUP((D17-2)/0.5,0)*HLOOKUP(C17,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E17,120%,100%)*F17</f>
         <v>50600</v>
       </c>
       <c r="H17" s="19">
@@ -2393,15 +2688,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D18" s="18">
         <v>1</v>
@@ -2410,11 +2705,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D18&gt;2,2,D18),$B$68:$B$74,1),MATCH(C18,$C$67:$K$67,1))+IF(D18&gt;2,ROUNDUP((D18-2)/0.5,0)*HLOOKUP(C18,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E18,120%,100%)*F18</f>
         <v>50600</v>
       </c>
       <c r="H18" s="19">
@@ -2424,15 +2719,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -2441,11 +2736,11 @@
         <v>0</v>
       </c>
       <c r="F19" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D19&gt;2,2,D19),$B$68:$B$74,1),MATCH(C19,$C$67:$K$67,1))+IF(D19&gt;2,ROUNDUP((D19-2)/0.5,0)*HLOOKUP(C19,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E19,120%,100%)*F19</f>
         <v>50600</v>
       </c>
       <c r="H19" s="19">
@@ -2455,15 +2750,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D20" s="18">
         <v>1</v>
@@ -2472,11 +2767,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D20&gt;2,2,D20),$B$68:$B$74,1),MATCH(C20,$C$67:$K$67,1))+IF(D20&gt;2,ROUNDUP((D20-2)/0.5,0)*HLOOKUP(C20,$C$67:$K$75,9,FALSE),0)</f>
         <v>47300</v>
       </c>
       <c r="G20" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E20,120%,100%)*F20</f>
         <v>47300</v>
       </c>
       <c r="H20" s="19">
@@ -2486,15 +2781,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -2503,11 +2798,11 @@
         <v>0</v>
       </c>
       <c r="F21" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D21&gt;2,2,D21),$B$68:$B$74,1),MATCH(C21,$C$67:$K$67,1))+IF(D21&gt;2,ROUNDUP((D21-2)/0.5,0)*HLOOKUP(C21,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G21" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E21,120%,100%)*F21</f>
         <v>50600</v>
       </c>
       <c r="H21" s="19">
@@ -2517,15 +2812,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D22" s="18">
         <v>1</v>
@@ -2534,11 +2829,11 @@
         <v>0</v>
       </c>
       <c r="F22" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D22&gt;2,2,D22),$B$68:$B$74,1),MATCH(C22,$C$67:$K$67,1))+IF(D22&gt;2,ROUNDUP((D22-2)/0.5,0)*HLOOKUP(C22,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G22" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E22,120%,100%)*F22</f>
         <v>50600</v>
       </c>
       <c r="H22" s="19">
@@ -2548,15 +2843,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D23" s="18">
         <v>1</v>
@@ -2565,11 +2860,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D23&gt;2,2,D23),$B$68:$B$74,1),MATCH(C23,$C$67:$K$67,1))+IF(D23&gt;2,ROUNDUP((D23-2)/0.5,0)*HLOOKUP(C23,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E23,120%,100%)*F23</f>
         <v>50600</v>
       </c>
       <c r="H23" s="19">
@@ -2579,15 +2874,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
@@ -2596,11 +2891,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D24&gt;2,2,D24),$B$68:$B$74,1),MATCH(C24,$C$67:$K$67,1))+IF(D24&gt;2,ROUNDUP((D24-2)/0.5,0)*HLOOKUP(C24,$C$67:$K$75,9,FALSE),0)</f>
         <v>41400</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E24,120%,100%)*F24</f>
         <v>41400</v>
       </c>
       <c r="H24" s="19">
@@ -2610,15 +2905,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
@@ -2627,11 +2922,11 @@
         <v>0</v>
       </c>
       <c r="F25" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D25&gt;2,2,D25),$B$68:$B$74,1),MATCH(C25,$C$67:$K$67,1))+IF(D25&gt;2,ROUNDUP((D25-2)/0.5,0)*HLOOKUP(C25,$C$67:$K$75,9,FALSE),0)</f>
         <v>14500</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E25,120%,100%)*F25</f>
         <v>14500</v>
       </c>
       <c r="H25" s="19">
@@ -2641,15 +2936,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D26" s="18">
         <v>1</v>
@@ -2658,11 +2953,11 @@
         <v>0</v>
       </c>
       <c r="F26" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D26&gt;2,2,D26),$B$68:$B$74,1),MATCH(C26,$C$67:$K$67,1))+IF(D26&gt;2,ROUNDUP((D26-2)/0.5,0)*HLOOKUP(C26,$C$67:$K$75,9,FALSE),0)</f>
         <v>41400</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E26,120%,100%)*F26</f>
         <v>41400</v>
       </c>
       <c r="H26" s="19">
@@ -2672,15 +2967,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="D27" s="18">
         <v>1</v>
@@ -2689,11 +2984,11 @@
         <v>0</v>
       </c>
       <c r="F27" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D27&gt;2,2,D27),$B$68:$B$74,1),MATCH(C27,$C$67:$K$67,1))+IF(D27&gt;2,ROUNDUP((D27-2)/0.5,0)*HLOOKUP(C27,$C$67:$K$75,9,FALSE),0)</f>
         <v>31400</v>
       </c>
       <c r="G27" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E27,120%,100%)*F27</f>
         <v>31400</v>
       </c>
       <c r="H27" s="19">
@@ -2703,15 +2998,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="D28" s="18">
         <v>1</v>
@@ -2720,11 +3015,11 @@
         <v>0</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D28&gt;2,2,D28),$B$68:$B$74,1),MATCH(C28,$C$67:$K$67,1))+IF(D28&gt;2,ROUNDUP((D28-2)/0.5,0)*HLOOKUP(C28,$C$67:$K$75,9,FALSE),0)</f>
         <v>31400</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E28,120%,100%)*F28</f>
         <v>31400</v>
       </c>
       <c r="H28" s="19">
@@ -2734,15 +3029,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D29" s="18">
         <v>1</v>
@@ -2751,11 +3046,11 @@
         <v>0</v>
       </c>
       <c r="F29" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D29&gt;2,2,D29),$B$68:$B$74,1),MATCH(C29,$C$67:$K$67,1))+IF(D29&gt;2,ROUNDUP((D29-2)/0.5,0)*HLOOKUP(C29,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G29" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E29,120%,100%)*F29</f>
         <v>50600</v>
       </c>
       <c r="H29" s="19">
@@ -2765,15 +3060,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
       <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D30" s="18">
         <v>1</v>
@@ -2782,11 +3077,11 @@
         <v>0</v>
       </c>
       <c r="F30" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D30&gt;2,2,D30),$B$68:$B$74,1),MATCH(C30,$C$67:$K$67,1))+IF(D30&gt;2,ROUNDUP((D30-2)/0.5,0)*HLOOKUP(C30,$C$67:$K$75,9,FALSE),0)</f>
         <v>46200</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E30,120%,100%)*F30</f>
         <v>46200</v>
       </c>
       <c r="H30" s="19">
@@ -2796,15 +3091,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D31" s="18">
         <v>1</v>
@@ -2813,11 +3108,11 @@
         <v>0</v>
       </c>
       <c r="F31" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D31&gt;2,2,D31),$B$68:$B$74,1),MATCH(C31,$C$67:$K$67,1))+IF(D31&gt;2,ROUNDUP((D31-2)/0.5,0)*HLOOKUP(C31,$C$67:$K$75,9,FALSE),0)</f>
         <v>39900</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E31,120%,100%)*F31</f>
         <v>39900</v>
       </c>
       <c r="H31" s="19">
@@ -2827,15 +3122,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D32" s="18">
         <v>1</v>
@@ -2844,11 +3139,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D32&gt;2,2,D32),$B$68:$B$74,1),MATCH(C32,$C$67:$K$67,1))+IF(D32&gt;2,ROUNDUP((D32-2)/0.5,0)*HLOOKUP(C32,$C$67:$K$75,9,FALSE),0)</f>
         <v>14500</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E32,120%,100%)*F32</f>
         <v>14500</v>
       </c>
       <c r="H32" s="19">
@@ -2858,15 +3153,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1">
       <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D33" s="18">
         <v>1</v>
@@ -2875,11 +3170,11 @@
         <v>0</v>
       </c>
       <c r="F33" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D33&gt;2,2,D33),$B$68:$B$74,1),MATCH(C33,$C$67:$K$67,1))+IF(D33&gt;2,ROUNDUP((D33-2)/0.5,0)*HLOOKUP(C33,$C$67:$K$75,9,FALSE),0)</f>
         <v>46200</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E33,120%,100%)*F33</f>
         <v>46200</v>
       </c>
       <c r="H33" s="19">
@@ -2889,15 +3184,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D34" s="18">
         <v>1</v>
@@ -2906,11 +3201,11 @@
         <v>0</v>
       </c>
       <c r="F34" s="14">
-        <f t="shared" ref="F34:F64" si="2">INDEX($C$68:$K$74,MATCH(IF(D34&gt;2,2,D34),$B$68:$B$74,1),MATCH(C34,$C$67:$K$67,1))+IF(D34&gt;2,ROUNDUP((D34-2)/0.5,0)*HLOOKUP(C34,$C$67:$K$75,9,FALSE),0)</f>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D34&gt;2,2,D34),$B$68:$B$74,1),MATCH(C34,$C$67:$K$67,1))+IF(D34&gt;2,ROUNDUP((D34-2)/0.5,0)*HLOOKUP(C34,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" ref="G34:G65" si="3">IF(E34,120%,100%)*F34</f>
+        <f ca="1">IF(E34,120%,100%)*F34</f>
         <v>50600</v>
       </c>
       <c r="H34" s="19">
@@ -2920,15 +3215,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1">
       <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D35" s="18">
         <v>1</v>
@@ -2937,11 +3232,11 @@
         <v>0</v>
       </c>
       <c r="F35" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D35&gt;2,2,D35),$B$68:$B$74,1),MATCH(C35,$C$67:$K$67,1))+IF(D35&gt;2,ROUNDUP((D35-2)/0.5,0)*HLOOKUP(C35,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E35,120%,100%)*F35</f>
         <v>50600</v>
       </c>
       <c r="H35" s="19">
@@ -2951,15 +3246,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D36" s="18">
         <v>1</v>
@@ -2968,11 +3263,11 @@
         <v>0</v>
       </c>
       <c r="F36" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D36&gt;2,2,D36),$B$68:$B$74,1),MATCH(C36,$C$67:$K$67,1))+IF(D36&gt;2,ROUNDUP((D36-2)/0.5,0)*HLOOKUP(C36,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E36,120%,100%)*F36</f>
         <v>50600</v>
       </c>
       <c r="H36" s="19">
@@ -2982,15 +3277,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1">
       <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D37" s="18">
         <v>1</v>
@@ -2999,11 +3294,11 @@
         <v>0</v>
       </c>
       <c r="F37" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D37&gt;2,2,D37),$B$68:$B$74,1),MATCH(C37,$C$67:$K$67,1))+IF(D37&gt;2,ROUNDUP((D37-2)/0.5,0)*HLOOKUP(C37,$C$67:$K$75,9,FALSE),0)</f>
         <v>39900</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E37,120%,100%)*F37</f>
         <v>39900</v>
       </c>
       <c r="H37" s="19">
@@ -3013,15 +3308,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D38" s="18">
         <v>1</v>
@@ -3030,11 +3325,11 @@
         <v>0</v>
       </c>
       <c r="F38" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D38&gt;2,2,D38),$B$68:$B$74,1),MATCH(C38,$C$67:$K$67,1))+IF(D38&gt;2,ROUNDUP((D38-2)/0.5,0)*HLOOKUP(C38,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E38,120%,100%)*F38</f>
         <v>50600</v>
       </c>
       <c r="H38" s="19">
@@ -3044,15 +3339,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1">
       <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D39" s="18">
         <v>1</v>
@@ -3061,11 +3356,11 @@
         <v>0</v>
       </c>
       <c r="F39" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D39&gt;2,2,D39),$B$68:$B$74,1),MATCH(C39,$C$67:$K$67,1))+IF(D39&gt;2,ROUNDUP((D39-2)/0.5,0)*HLOOKUP(C39,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E39,120%,100%)*F39</f>
         <v>50600</v>
       </c>
       <c r="H39" s="19">
@@ -3075,15 +3370,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1">
       <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D40" s="18">
         <v>1</v>
@@ -3092,11 +3387,11 @@
         <v>0</v>
       </c>
       <c r="F40" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D40&gt;2,2,D40),$B$68:$B$74,1),MATCH(C40,$C$67:$K$67,1))+IF(D40&gt;2,ROUNDUP((D40-2)/0.5,0)*HLOOKUP(C40,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E40,120%,100%)*F40</f>
         <v>50600</v>
       </c>
       <c r="H40" s="19">
@@ -3106,15 +3401,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1">
       <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D41" s="18">
         <v>1</v>
@@ -3123,11 +3418,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D41&gt;2,2,D41),$B$68:$B$74,1),MATCH(C41,$C$67:$K$67,1))+IF(D41&gt;2,ROUNDUP((D41-2)/0.5,0)*HLOOKUP(C41,$C$67:$K$75,9,FALSE),0)</f>
         <v>35400</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E41,120%,100%)*F41</f>
         <v>35400</v>
       </c>
       <c r="H41" s="19">
@@ -3137,15 +3432,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1">
       <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D42" s="18">
         <v>1</v>
@@ -3154,11 +3449,11 @@
         <v>0</v>
       </c>
       <c r="F42" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D42&gt;2,2,D42),$B$68:$B$74,1),MATCH(C42,$C$67:$K$67,1))+IF(D42&gt;2,ROUNDUP((D42-2)/0.5,0)*HLOOKUP(C42,$C$67:$K$75,9,FALSE),0)</f>
         <v>41400</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E42,120%,100%)*F42</f>
         <v>41400</v>
       </c>
       <c r="H42" s="19">
@@ -3168,15 +3463,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1">
       <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D43" s="18">
         <v>1</v>
@@ -3185,11 +3480,11 @@
         <v>0</v>
       </c>
       <c r="F43" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D43&gt;2,2,D43),$B$68:$B$74,1),MATCH(C43,$C$67:$K$67,1))+IF(D43&gt;2,ROUNDUP((D43-2)/0.5,0)*HLOOKUP(C43,$C$67:$K$75,9,FALSE),0)</f>
         <v>41400</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E43,120%,100%)*F43</f>
         <v>41400</v>
       </c>
       <c r="H43" s="19">
@@ -3199,15 +3494,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1">
       <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D44" s="18">
         <v>1</v>
@@ -3216,11 +3511,11 @@
         <v>0</v>
       </c>
       <c r="F44" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D44&gt;2,2,D44),$B$68:$B$74,1),MATCH(C44,$C$67:$K$67,1))+IF(D44&gt;2,ROUNDUP((D44-2)/0.5,0)*HLOOKUP(C44,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E44,120%,100%)*F44</f>
         <v>50600</v>
       </c>
       <c r="H44" s="19">
@@ -3230,15 +3525,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="12.75" customHeight="1">
       <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="D45" s="18">
         <v>1</v>
@@ -3247,11 +3542,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D45&gt;2,2,D45),$B$68:$B$74,1),MATCH(C45,$C$67:$K$67,1))+IF(D45&gt;2,ROUNDUP((D45-2)/0.5,0)*HLOOKUP(C45,$C$67:$K$75,9,FALSE),0)</f>
         <v>41400</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E45,120%,100%)*F45</f>
         <v>41400</v>
       </c>
       <c r="H45" s="19">
@@ -3261,15 +3556,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="12.75" customHeight="1">
       <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D46" s="18">
         <v>1</v>
@@ -3278,11 +3573,11 @@
         <v>0</v>
       </c>
       <c r="F46" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D46&gt;2,2,D46),$B$68:$B$74,1),MATCH(C46,$C$67:$K$67,1))+IF(D46&gt;2,ROUNDUP((D46-2)/0.5,0)*HLOOKUP(C46,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E46,120%,100%)*F46</f>
         <v>50600</v>
       </c>
       <c r="H46" s="19">
@@ -3292,15 +3587,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="12.75" customHeight="1">
       <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D47" s="18">
         <v>1</v>
@@ -3309,11 +3604,11 @@
         <v>0</v>
       </c>
       <c r="F47" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D47&gt;2,2,D47),$B$68:$B$74,1),MATCH(C47,$C$67:$K$67,1))+IF(D47&gt;2,ROUNDUP((D47-2)/0.5,0)*HLOOKUP(C47,$C$67:$K$75,9,FALSE),0)</f>
         <v>47300</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E47,120%,100%)*F47</f>
         <v>47300</v>
       </c>
       <c r="H47" s="19">
@@ -3323,15 +3618,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="12.75" customHeight="1">
       <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D48" s="18">
         <v>1</v>
@@ -3340,11 +3635,11 @@
         <v>0</v>
       </c>
       <c r="F48" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D48&gt;2,2,D48),$B$68:$B$74,1),MATCH(C48,$C$67:$K$67,1))+IF(D48&gt;2,ROUNDUP((D48-2)/0.5,0)*HLOOKUP(C48,$C$67:$K$75,9,FALSE),0)</f>
         <v>46200</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E48,120%,100%)*F48</f>
         <v>46200</v>
       </c>
       <c r="H48" s="19">
@@ -3354,15 +3649,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="12.75" customHeight="1">
       <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D49" s="18">
         <v>1</v>
@@ -3371,11 +3666,11 @@
         <v>0</v>
       </c>
       <c r="F49" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D49&gt;2,2,D49),$B$68:$B$74,1),MATCH(C49,$C$67:$K$67,1))+IF(D49&gt;2,ROUNDUP((D49-2)/0.5,0)*HLOOKUP(C49,$C$67:$K$75,9,FALSE),0)</f>
         <v>46200</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E49,120%,100%)*F49</f>
         <v>46200</v>
       </c>
       <c r="H49" s="19">
@@ -3385,15 +3680,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="12.75" customHeight="1">
       <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D50" s="18">
         <v>1</v>
@@ -3402,11 +3697,11 @@
         <v>0</v>
       </c>
       <c r="F50" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D50&gt;2,2,D50),$B$68:$B$74,1),MATCH(C50,$C$67:$K$67,1))+IF(D50&gt;2,ROUNDUP((D50-2)/0.5,0)*HLOOKUP(C50,$C$67:$K$75,9,FALSE),0)</f>
         <v>41400</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E50,120%,100%)*F50</f>
         <v>41400</v>
       </c>
       <c r="H50" s="19">
@@ -3416,15 +3711,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="12.75" customHeight="1">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D51" s="18">
         <v>1</v>
@@ -3433,11 +3728,11 @@
         <v>0</v>
       </c>
       <c r="F51" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D51&gt;2,2,D51),$B$68:$B$74,1),MATCH(C51,$C$67:$K$67,1))+IF(D51&gt;2,ROUNDUP((D51-2)/0.5,0)*HLOOKUP(C51,$C$67:$K$75,9,FALSE),0)</f>
         <v>46200</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E51,120%,100%)*F51</f>
         <v>46200</v>
       </c>
       <c r="H51" s="19">
@@ -3447,15 +3742,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="12.75" customHeight="1">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D52" s="18">
         <v>1</v>
@@ -3464,11 +3759,11 @@
         <v>0</v>
       </c>
       <c r="F52" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D52&gt;2,2,D52),$B$68:$B$74,1),MATCH(C52,$C$67:$K$67,1))+IF(D52&gt;2,ROUNDUP((D52-2)/0.5,0)*HLOOKUP(C52,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E52,120%,100%)*F52</f>
         <v>50600</v>
       </c>
       <c r="H52" s="19">
@@ -3478,15 +3773,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="12.75" customHeight="1">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D53" s="18">
         <v>1</v>
@@ -3495,11 +3790,11 @@
         <v>0</v>
       </c>
       <c r="F53" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D53&gt;2,2,D53),$B$68:$B$74,1),MATCH(C53,$C$67:$K$67,1))+IF(D53&gt;2,ROUNDUP((D53-2)/0.5,0)*HLOOKUP(C53,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E53,120%,100%)*F53</f>
         <v>50600</v>
       </c>
       <c r="H53" s="19">
@@ -3509,15 +3804,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="12.75" customHeight="1">
       <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D54" s="18">
         <v>1</v>
@@ -3526,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="F54" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D54&gt;2,2,D54),$B$68:$B$74,1),MATCH(C54,$C$67:$K$67,1))+IF(D54&gt;2,ROUNDUP((D54-2)/0.5,0)*HLOOKUP(C54,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E54,120%,100%)*F54</f>
         <v>50600</v>
       </c>
       <c r="H54" s="19">
@@ -3540,15 +3835,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="12.75" customHeight="1">
       <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D55" s="18">
         <v>1</v>
@@ -3557,11 +3852,11 @@
         <v>0</v>
       </c>
       <c r="F55" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D55&gt;2,2,D55),$B$68:$B$74,1),MATCH(C55,$C$67:$K$67,1))+IF(D55&gt;2,ROUNDUP((D55-2)/0.5,0)*HLOOKUP(C55,$C$67:$K$75,9,FALSE),0)</f>
         <v>35400</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E55,120%,100%)*F55</f>
         <v>35400</v>
       </c>
       <c r="H55" s="19">
@@ -3571,15 +3866,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="12.75" customHeight="1">
       <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D56" s="18">
         <v>1</v>
@@ -3588,11 +3883,11 @@
         <v>0</v>
       </c>
       <c r="F56" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D56&gt;2,2,D56),$B$68:$B$74,1),MATCH(C56,$C$67:$K$67,1))+IF(D56&gt;2,ROUNDUP((D56-2)/0.5,0)*HLOOKUP(C56,$C$67:$K$75,9,FALSE),0)</f>
         <v>39900</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E56,120%,100%)*F56</f>
         <v>39900</v>
       </c>
       <c r="H56" s="19">
@@ -3602,15 +3897,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="12.75" customHeight="1">
       <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D57" s="18">
         <v>1</v>
@@ -3619,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F57" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D57&gt;2,2,D57),$B$68:$B$74,1),MATCH(C57,$C$67:$K$67,1))+IF(D57&gt;2,ROUNDUP((D57-2)/0.5,0)*HLOOKUP(C57,$C$67:$K$75,9,FALSE),0)</f>
         <v>41400</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E57,120%,100%)*F57</f>
         <v>41400</v>
       </c>
       <c r="H57" s="19">
@@ -3633,15 +3928,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="12.75" customHeight="1">
       <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D58" s="18">
         <v>1</v>
@@ -3650,11 +3945,11 @@
         <v>0</v>
       </c>
       <c r="F58" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D58&gt;2,2,D58),$B$68:$B$74,1),MATCH(C58,$C$67:$K$67,1))+IF(D58&gt;2,ROUNDUP((D58-2)/0.5,0)*HLOOKUP(C58,$C$67:$K$75,9,FALSE),0)</f>
         <v>45200</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E58,120%,100%)*F58</f>
         <v>45200</v>
       </c>
       <c r="H58" s="19">
@@ -3664,15 +3959,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="12.75" customHeight="1">
       <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D59" s="18">
         <v>1</v>
@@ -3681,11 +3976,11 @@
         <v>0</v>
       </c>
       <c r="F59" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D59&gt;2,2,D59),$B$68:$B$74,1),MATCH(C59,$C$67:$K$67,1))+IF(D59&gt;2,ROUNDUP((D59-2)/0.5,0)*HLOOKUP(C59,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E59,120%,100%)*F59</f>
         <v>50600</v>
       </c>
       <c r="H59" s="19">
@@ -3695,15 +3990,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="12.75" customHeight="1">
       <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D60" s="18">
         <v>1</v>
@@ -3712,11 +4007,11 @@
         <v>0</v>
       </c>
       <c r="F60" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D60&gt;2,2,D60),$B$68:$B$74,1),MATCH(C60,$C$67:$K$67,1))+IF(D60&gt;2,ROUNDUP((D60-2)/0.5,0)*HLOOKUP(C60,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E60,120%,100%)*F60</f>
         <v>50600</v>
       </c>
       <c r="H60" s="19">
@@ -3726,15 +4021,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="12.75" customHeight="1">
       <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D61" s="18">
         <v>1</v>
@@ -3743,11 +4038,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D61&gt;2,2,D61),$B$68:$B$74,1),MATCH(C61,$C$67:$K$67,1))+IF(D61&gt;2,ROUNDUP((D61-2)/0.5,0)*HLOOKUP(C61,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E61,120%,100%)*F61</f>
         <v>50600</v>
       </c>
       <c r="H61" s="19">
@@ -3757,15 +4052,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="12.75" customHeight="1">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D62" s="18">
         <v>1</v>
@@ -3774,11 +4069,11 @@
         <v>0</v>
       </c>
       <c r="F62" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D62&gt;2,2,D62),$B$68:$B$74,1),MATCH(C62,$C$67:$K$67,1))+IF(D62&gt;2,ROUNDUP((D62-2)/0.5,0)*HLOOKUP(C62,$C$67:$K$75,9,FALSE),0)</f>
         <v>50600</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E62,120%,100%)*F62</f>
         <v>50600</v>
       </c>
       <c r="H62" s="19">
@@ -3788,15 +4083,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="12.75" customHeight="1">
       <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D63" s="18">
         <v>1</v>
@@ -3805,11 +4100,11 @@
         <v>0</v>
       </c>
       <c r="F63" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D63&gt;2,2,D63),$B$68:$B$74,1),MATCH(C63,$C$67:$K$67,1))+IF(D63&gt;2,ROUNDUP((D63-2)/0.5,0)*HLOOKUP(C63,$C$67:$K$75,9,FALSE),0)</f>
         <v>35400</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E63,120%,100%)*F63</f>
         <v>35400</v>
       </c>
       <c r="H63" s="19">
@@ -3819,15 +4114,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="12.75" customHeight="1">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D64" s="18">
         <v>1</v>
@@ -3836,11 +4131,11 @@
         <v>0</v>
       </c>
       <c r="F64" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D64&gt;2,2,D64),$B$68:$B$74,1),MATCH(C64,$C$67:$K$67,1))+IF(D64&gt;2,ROUNDUP((D64-2)/0.5,0)*HLOOKUP(C64,$C$67:$K$75,9,FALSE),0)</f>
         <v>39900</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E64,120%,100%)*F64</f>
         <v>39900</v>
       </c>
       <c r="H64" s="19">
@@ -3850,39 +4145,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" ht="12.75" customHeight="1">
       <c r="B67" s="6" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="12.75" customHeight="1">
       <c r="B68" s="21">
         <v>0.05</v>
       </c>
@@ -3914,7 +4209,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" ht="12.75" customHeight="1">
       <c r="B69" s="21">
         <v>0.1</v>
       </c>
@@ -3946,7 +4241,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" ht="12.75" customHeight="1">
       <c r="B70" s="21">
         <v>0.25</v>
       </c>
@@ -3978,7 +4273,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" ht="12.75" customHeight="1">
       <c r="B71" s="21">
         <v>0.5</v>
       </c>
@@ -4010,7 +4305,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" ht="12.75" customHeight="1">
       <c r="B72" s="21">
         <v>1</v>
       </c>
@@ -4042,7 +4337,7 @@
         <v>50600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" ht="12.75" customHeight="1">
       <c r="B73" s="21">
         <v>1.5</v>
       </c>
@@ -4074,7 +4369,7 @@
         <v>66200</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" ht="12.75" customHeight="1">
       <c r="B74" s="21">
         <v>2</v>
       </c>
@@ -4106,9 +4401,9 @@
         <v>71400</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" ht="12.75" customHeight="1">
       <c r="B75" s="21" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="C75" s="14">
         <v>2100</v>
@@ -4139,20 +4434,21 @@
       </c>
     </row>
   </sheetData>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView workbookViewId="0" topLeftCell="A52">
+      <selection pane="topLeft" activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.571428571428571" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -4163,52 +4459,51 @@
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.5703125" style="1"/>
+    <col min="11" max="12" width="8" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.142857142857142" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.285714285714286" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.428571428571429" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.571428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="13" customFormat="1" spans="1:256" ht="12.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D2" s="18">
         <v>2.5</v>
@@ -4217,11 +4512,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="14">
-        <f t="shared" ref="F2:F33" si="0">INDEX($C$68:$K$74,MATCH(IF(D2&gt;2,2,D2),$B$68:$B$74,1),MATCH(C2,$C$67:$K$67,1))+IF(D2&gt;2,ROUNDUP((D2-2)/0.5,0)*HLOOKUP(C2,$C$67:$K$75,9,FALSE),0)</f>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D2&gt;2,2,D2),$B$68:$B$74,1),MATCH(C2,$C$67:$K$67,1))+IF(D2&gt;2,ROUNDUP((D2-2)/0.5,0)*HLOOKUP(C2,$C$67:$K$75,9,FALSE),0)</f>
         <v>69400</v>
       </c>
       <c r="G2" s="17">
-        <f t="shared" ref="G2:G33" si="1">IF(E2,120%,100%)*F2</f>
+        <f ca="1">IF(E2,120%,100%)*F2</f>
         <v>83280</v>
       </c>
       <c r="H2" s="19">
@@ -4231,15 +4526,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="D3" s="18">
         <v>100</v>
@@ -4248,11 +4543,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D3&gt;2,2,D3),$B$68:$B$74,1),MATCH(C3,$C$67:$K$67,1))+IF(D3&gt;2,ROUNDUP((D3-2)/0.5,0)*HLOOKUP(C3,$C$67:$K$75,9,FALSE),0)</f>
         <v>732800</v>
       </c>
       <c r="G3" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E3,120%,100%)*F3</f>
         <v>879360</v>
       </c>
       <c r="H3" s="19">
@@ -4262,15 +4557,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D4" s="18">
         <v>100</v>
@@ -4279,11 +4574,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D4&gt;2,2,D4),$B$68:$B$74,1),MATCH(C4,$C$67:$K$67,1))+IF(D4&gt;2,ROUNDUP((D4-2)/0.5,0)*HLOOKUP(C4,$C$67:$K$75,9,FALSE),0)</f>
         <v>2281700</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E4,120%,100%)*F4</f>
         <v>2738040</v>
       </c>
       <c r="H4" s="19">
@@ -4293,15 +4588,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D5" s="18">
         <v>100</v>
@@ -4310,11 +4605,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D5&gt;2,2,D5),$B$68:$B$74,1),MATCH(C5,$C$67:$K$67,1))+IF(D5&gt;2,ROUNDUP((D5-2)/0.5,0)*HLOOKUP(C5,$C$67:$K$75,9,FALSE),0)</f>
         <v>2219500</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E5,120%,100%)*F5</f>
         <v>2663400</v>
       </c>
       <c r="H5" s="19">
@@ -4324,15 +4619,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D6" s="18">
         <v>100</v>
@@ -4341,11 +4636,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D6&gt;2,2,D6),$B$68:$B$74,1),MATCH(C6,$C$67:$K$67,1))+IF(D6&gt;2,ROUNDUP((D6-2)/0.5,0)*HLOOKUP(C6,$C$67:$K$75,9,FALSE),0)</f>
         <v>1067900</v>
       </c>
       <c r="G6" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E6,120%,100%)*F6</f>
         <v>1281480</v>
       </c>
       <c r="H6" s="19">
@@ -4355,15 +4650,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D7" s="18">
         <v>100</v>
@@ -4372,11 +4667,11 @@
         <v>1</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D7&gt;2,2,D7),$B$68:$B$74,1),MATCH(C7,$C$67:$K$67,1))+IF(D7&gt;2,ROUNDUP((D7-2)/0.5,0)*HLOOKUP(C7,$C$67:$K$75,9,FALSE),0)</f>
         <v>2032200</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E7,120%,100%)*F7</f>
         <v>2438640</v>
       </c>
       <c r="H7" s="19">
@@ -4386,15 +4681,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D8" s="18">
         <v>100</v>
@@ -4403,11 +4698,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D8&gt;2,2,D8),$B$68:$B$74,1),MATCH(C8,$C$67:$K$67,1))+IF(D8&gt;2,ROUNDUP((D8-2)/0.5,0)*HLOOKUP(C8,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E8,120%,100%)*F8</f>
         <v>1159680</v>
       </c>
       <c r="H8" s="19">
@@ -4417,15 +4712,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D9" s="18">
         <v>100</v>
@@ -4434,11 +4729,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D9&gt;2,2,D9),$B$68:$B$74,1),MATCH(C9,$C$67:$K$67,1))+IF(D9&gt;2,ROUNDUP((D9-2)/0.5,0)*HLOOKUP(C9,$C$67:$K$75,9,FALSE),0)</f>
         <v>1675800</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E9,120%,100%)*F9</f>
         <v>2010960</v>
       </c>
       <c r="H9" s="19">
@@ -4448,15 +4743,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="D10" s="18">
         <v>100</v>
@@ -4465,11 +4760,11 @@
         <v>1</v>
       </c>
       <c r="F10" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D10&gt;2,2,D10),$B$68:$B$74,1),MATCH(C10,$C$67:$K$67,1))+IF(D10&gt;2,ROUNDUP((D10-2)/0.5,0)*HLOOKUP(C10,$C$67:$K$75,9,FALSE),0)</f>
         <v>732800</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E10,120%,100%)*F10</f>
         <v>879360</v>
       </c>
       <c r="H10" s="19">
@@ -4479,15 +4774,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D11" s="18">
         <v>100</v>
@@ -4496,11 +4791,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D11&gt;2,2,D11),$B$68:$B$74,1),MATCH(C11,$C$67:$K$67,1))+IF(D11&gt;2,ROUNDUP((D11-2)/0.5,0)*HLOOKUP(C11,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E11,120%,100%)*F11</f>
         <v>1159680</v>
       </c>
       <c r="H11" s="19">
@@ -4510,15 +4805,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D12" s="18">
         <v>100</v>
@@ -4527,11 +4822,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D12&gt;2,2,D12),$B$68:$B$74,1),MATCH(C12,$C$67:$K$67,1))+IF(D12&gt;2,ROUNDUP((D12-2)/0.5,0)*HLOOKUP(C12,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E12,120%,100%)*F12</f>
         <v>1159680</v>
       </c>
       <c r="H12" s="19">
@@ -4541,15 +4836,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D13" s="18">
         <v>100</v>
@@ -4558,11 +4853,11 @@
         <v>1</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D13&gt;2,2,D13),$B$68:$B$74,1),MATCH(C13,$C$67:$K$67,1))+IF(D13&gt;2,ROUNDUP((D13-2)/0.5,0)*HLOOKUP(C13,$C$67:$K$75,9,FALSE),0)</f>
         <v>1067900</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E13,120%,100%)*F13</f>
         <v>1281480</v>
       </c>
       <c r="H13" s="19">
@@ -4572,15 +4867,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D14" s="18">
         <v>100</v>
@@ -4589,11 +4884,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D14&gt;2,2,D14),$B$68:$B$74,1),MATCH(C14,$C$67:$K$67,1))+IF(D14&gt;2,ROUNDUP((D14-2)/0.5,0)*HLOOKUP(C14,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E14,120%,100%)*F14</f>
         <v>1159680</v>
       </c>
       <c r="H14" s="19">
@@ -4603,15 +4898,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18">
         <v>100</v>
@@ -4620,11 +4915,11 @@
         <v>1</v>
       </c>
       <c r="F15" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D15&gt;2,2,D15),$B$68:$B$74,1),MATCH(C15,$C$67:$K$67,1))+IF(D15&gt;2,ROUNDUP((D15-2)/0.5,0)*HLOOKUP(C15,$C$67:$K$75,9,FALSE),0)</f>
         <v>2281700</v>
       </c>
       <c r="G15" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E15,120%,100%)*F15</f>
         <v>2738040</v>
       </c>
       <c r="H15" s="19">
@@ -4634,15 +4929,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D16" s="18">
         <v>100</v>
@@ -4651,11 +4946,11 @@
         <v>1</v>
       </c>
       <c r="F16" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D16&gt;2,2,D16),$B$68:$B$74,1),MATCH(C16,$C$67:$K$67,1))+IF(D16&gt;2,ROUNDUP((D16-2)/0.5,0)*HLOOKUP(C16,$C$67:$K$75,9,FALSE),0)</f>
         <v>1675800</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E16,120%,100%)*F16</f>
         <v>2010960</v>
       </c>
       <c r="H16" s="19">
@@ -4665,15 +4960,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D17" s="18">
         <v>100</v>
@@ -4682,11 +4977,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D17&gt;2,2,D17),$B$68:$B$74,1),MATCH(C17,$C$67:$K$67,1))+IF(D17&gt;2,ROUNDUP((D17-2)/0.5,0)*HLOOKUP(C17,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E17,120%,100%)*F17</f>
         <v>1159680</v>
       </c>
       <c r="H17" s="19">
@@ -4696,15 +4991,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D18" s="18">
         <v>100</v>
@@ -4713,11 +5008,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D18&gt;2,2,D18),$B$68:$B$74,1),MATCH(C18,$C$67:$K$67,1))+IF(D18&gt;2,ROUNDUP((D18-2)/0.5,0)*HLOOKUP(C18,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E18,120%,100%)*F18</f>
         <v>1159680</v>
       </c>
       <c r="H18" s="19">
@@ -4727,15 +5022,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D19" s="18">
         <v>100</v>
@@ -4744,11 +5039,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D19&gt;2,2,D19),$B$68:$B$74,1),MATCH(C19,$C$67:$K$67,1))+IF(D19&gt;2,ROUNDUP((D19-2)/0.5,0)*HLOOKUP(C19,$C$67:$K$75,9,FALSE),0)</f>
         <v>2281700</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E19,120%,100%)*F19</f>
         <v>2738040</v>
       </c>
       <c r="H19" s="19">
@@ -4758,15 +5053,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="D20" s="18">
         <v>100</v>
@@ -4775,11 +5070,11 @@
         <v>1</v>
       </c>
       <c r="F20" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D20&gt;2,2,D20),$B$68:$B$74,1),MATCH(C20,$C$67:$K$67,1))+IF(D20&gt;2,ROUNDUP((D20-2)/0.5,0)*HLOOKUP(C20,$C$67:$K$75,9,FALSE),0)</f>
         <v>732800</v>
       </c>
       <c r="G20" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E20,120%,100%)*F20</f>
         <v>879360</v>
       </c>
       <c r="H20" s="19">
@@ -4789,15 +5084,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D21" s="18">
         <v>100</v>
@@ -4806,11 +5101,11 @@
         <v>1</v>
       </c>
       <c r="F21" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D21&gt;2,2,D21),$B$68:$B$74,1),MATCH(C21,$C$67:$K$67,1))+IF(D21&gt;2,ROUNDUP((D21-2)/0.5,0)*HLOOKUP(C21,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G21" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E21,120%,100%)*F21</f>
         <v>1159680</v>
       </c>
       <c r="H21" s="19">
@@ -4820,15 +5115,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D22" s="18">
         <v>100</v>
@@ -4837,11 +5132,11 @@
         <v>1</v>
       </c>
       <c r="F22" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D22&gt;2,2,D22),$B$68:$B$74,1),MATCH(C22,$C$67:$K$67,1))+IF(D22&gt;2,ROUNDUP((D22-2)/0.5,0)*HLOOKUP(C22,$C$67:$K$75,9,FALSE),0)</f>
         <v>1675800</v>
       </c>
       <c r="G22" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E22,120%,100%)*F22</f>
         <v>2010960</v>
       </c>
       <c r="H22" s="19">
@@ -4851,15 +5146,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D23" s="18">
         <v>100</v>
@@ -4868,11 +5163,11 @@
         <v>1</v>
       </c>
       <c r="F23" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D23&gt;2,2,D23),$B$68:$B$74,1),MATCH(C23,$C$67:$K$67,1))+IF(D23&gt;2,ROUNDUP((D23-2)/0.5,0)*HLOOKUP(C23,$C$67:$K$75,9,FALSE),0)</f>
         <v>2281700</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E23,120%,100%)*F23</f>
         <v>2738040</v>
       </c>
       <c r="H23" s="19">
@@ -4882,15 +5177,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D24" s="18">
         <v>100</v>
@@ -4899,11 +5194,11 @@
         <v>1</v>
       </c>
       <c r="F24" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D24&gt;2,2,D24),$B$68:$B$74,1),MATCH(C24,$C$67:$K$67,1))+IF(D24&gt;2,ROUNDUP((D24-2)/0.5,0)*HLOOKUP(C24,$C$67:$K$75,9,FALSE),0)</f>
         <v>2219500</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E24,120%,100%)*F24</f>
         <v>2663400</v>
       </c>
       <c r="H24" s="19">
@@ -4913,15 +5208,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D25" s="18">
         <v>100</v>
@@ -4930,11 +5225,11 @@
         <v>1</v>
       </c>
       <c r="F25" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D25&gt;2,2,D25),$B$68:$B$74,1),MATCH(C25,$C$67:$K$67,1))+IF(D25&gt;2,ROUNDUP((D25-2)/0.5,0)*HLOOKUP(C25,$C$67:$K$75,9,FALSE),0)</f>
         <v>2032200</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E25,120%,100%)*F25</f>
         <v>2438640</v>
       </c>
       <c r="H25" s="19">
@@ -4944,15 +5239,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D26" s="18">
         <v>100</v>
@@ -4961,11 +5256,11 @@
         <v>1</v>
       </c>
       <c r="F26" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D26&gt;2,2,D26),$B$68:$B$74,1),MATCH(C26,$C$67:$K$67,1))+IF(D26&gt;2,ROUNDUP((D26-2)/0.5,0)*HLOOKUP(C26,$C$67:$K$75,9,FALSE),0)</f>
         <v>2032200</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E26,120%,100%)*F26</f>
         <v>2438640</v>
       </c>
       <c r="H26" s="19">
@@ -4975,15 +5270,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D27" s="18">
         <v>100</v>
@@ -4992,11 +5287,11 @@
         <v>1</v>
       </c>
       <c r="F27" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D27&gt;2,2,D27),$B$68:$B$74,1),MATCH(C27,$C$67:$K$67,1))+IF(D27&gt;2,ROUNDUP((D27-2)/0.5,0)*HLOOKUP(C27,$C$67:$K$75,9,FALSE),0)</f>
         <v>2219500</v>
       </c>
       <c r="G27" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E27,120%,100%)*F27</f>
         <v>2663400</v>
       </c>
       <c r="H27" s="19">
@@ -5006,15 +5301,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D28" s="18">
         <v>100</v>
@@ -5023,11 +5318,11 @@
         <v>1</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D28&gt;2,2,D28),$B$68:$B$74,1),MATCH(C28,$C$67:$K$67,1))+IF(D28&gt;2,ROUNDUP((D28-2)/0.5,0)*HLOOKUP(C28,$C$67:$K$75,9,FALSE),0)</f>
         <v>2219500</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E28,120%,100%)*F28</f>
         <v>2663400</v>
       </c>
       <c r="H28" s="19">
@@ -5037,15 +5332,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D29" s="18">
         <v>100</v>
@@ -5054,11 +5349,11 @@
         <v>1</v>
       </c>
       <c r="F29" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D29&gt;2,2,D29),$B$68:$B$74,1),MATCH(C29,$C$67:$K$67,1))+IF(D29&gt;2,ROUNDUP((D29-2)/0.5,0)*HLOOKUP(C29,$C$67:$K$75,9,FALSE),0)</f>
         <v>1067900</v>
       </c>
       <c r="G29" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E29,120%,100%)*F29</f>
         <v>1281480</v>
       </c>
       <c r="H29" s="19">
@@ -5068,15 +5363,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
       <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D30" s="18">
         <v>100</v>
@@ -5085,11 +5380,11 @@
         <v>1</v>
       </c>
       <c r="F30" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D30&gt;2,2,D30),$B$68:$B$74,1),MATCH(C30,$C$67:$K$67,1))+IF(D30&gt;2,ROUNDUP((D30-2)/0.5,0)*HLOOKUP(C30,$C$67:$K$75,9,FALSE),0)</f>
         <v>2239600</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E30,120%,100%)*F30</f>
         <v>2687520</v>
       </c>
       <c r="H30" s="19">
@@ -5099,15 +5394,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="D31" s="18">
         <v>100</v>
@@ -5116,11 +5411,11 @@
         <v>1</v>
       </c>
       <c r="F31" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D31&gt;2,2,D31),$B$68:$B$74,1),MATCH(C31,$C$67:$K$67,1))+IF(D31&gt;2,ROUNDUP((D31-2)/0.5,0)*HLOOKUP(C31,$C$67:$K$75,9,FALSE),0)</f>
         <v>371700</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E31,120%,100%)*F31</f>
         <v>446040</v>
       </c>
       <c r="H31" s="19">
@@ -5130,15 +5425,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D32" s="18">
         <v>100</v>
@@ -5147,11 +5442,11 @@
         <v>1</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D32&gt;2,2,D32),$B$68:$B$74,1),MATCH(C32,$C$67:$K$67,1))+IF(D32&gt;2,ROUNDUP((D32-2)/0.5,0)*HLOOKUP(C32,$C$67:$K$75,9,FALSE),0)</f>
         <v>2032200</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E32,120%,100%)*F32</f>
         <v>2438640</v>
       </c>
       <c r="H32" s="19">
@@ -5161,15 +5456,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1">
       <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D33" s="18">
         <v>100</v>
@@ -5178,11 +5473,11 @@
         <v>1</v>
       </c>
       <c r="F33" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D33&gt;2,2,D33),$B$68:$B$74,1),MATCH(C33,$C$67:$K$67,1))+IF(D33&gt;2,ROUNDUP((D33-2)/0.5,0)*HLOOKUP(C33,$C$67:$K$75,9,FALSE),0)</f>
         <v>1067900</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="1"/>
+        <f ca="1">IF(E33,120%,100%)*F33</f>
         <v>1281480</v>
       </c>
       <c r="H33" s="19">
@@ -5192,15 +5487,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D34" s="18">
         <v>100</v>
@@ -5209,11 +5504,11 @@
         <v>1</v>
       </c>
       <c r="F34" s="14">
-        <f t="shared" ref="F34:F64" si="2">INDEX($C$68:$K$74,MATCH(IF(D34&gt;2,2,D34),$B$68:$B$74,1),MATCH(C34,$C$67:$K$67,1))+IF(D34&gt;2,ROUNDUP((D34-2)/0.5,0)*HLOOKUP(C34,$C$67:$K$75,9,FALSE),0)</f>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D34&gt;2,2,D34),$B$68:$B$74,1),MATCH(C34,$C$67:$K$67,1))+IF(D34&gt;2,ROUNDUP((D34-2)/0.5,0)*HLOOKUP(C34,$C$67:$K$75,9,FALSE),0)</f>
         <v>1067900</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" ref="G34:G65" si="3">IF(E34,120%,100%)*F34</f>
+        <f ca="1">IF(E34,120%,100%)*F34</f>
         <v>1281480</v>
       </c>
       <c r="H34" s="19">
@@ -5223,15 +5518,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1">
       <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D35" s="18">
         <v>100</v>
@@ -5240,11 +5535,11 @@
         <v>1</v>
       </c>
       <c r="F35" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D35&gt;2,2,D35),$B$68:$B$74,1),MATCH(C35,$C$67:$K$67,1))+IF(D35&gt;2,ROUNDUP((D35-2)/0.5,0)*HLOOKUP(C35,$C$67:$K$75,9,FALSE),0)</f>
         <v>1675800</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E35,120%,100%)*F35</f>
         <v>2010960</v>
       </c>
       <c r="H35" s="19">
@@ -5254,15 +5549,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D36" s="18">
         <v>100</v>
@@ -5271,11 +5566,11 @@
         <v>1</v>
       </c>
       <c r="F36" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D36&gt;2,2,D36),$B$68:$B$74,1),MATCH(C36,$C$67:$K$67,1))+IF(D36&gt;2,ROUNDUP((D36-2)/0.5,0)*HLOOKUP(C36,$C$67:$K$75,9,FALSE),0)</f>
         <v>1067900</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E36,120%,100%)*F36</f>
         <v>1281480</v>
       </c>
       <c r="H36" s="19">
@@ -5285,15 +5580,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1">
       <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D37" s="18">
         <v>100</v>
@@ -5302,11 +5597,11 @@
         <v>1</v>
       </c>
       <c r="F37" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D37&gt;2,2,D37),$B$68:$B$74,1),MATCH(C37,$C$67:$K$67,1))+IF(D37&gt;2,ROUNDUP((D37-2)/0.5,0)*HLOOKUP(C37,$C$67:$K$75,9,FALSE),0)</f>
         <v>2239600</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E37,120%,100%)*F37</f>
         <v>2687520</v>
       </c>
       <c r="H37" s="19">
@@ -5316,15 +5611,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D38" s="18">
         <v>100</v>
@@ -5333,11 +5628,11 @@
         <v>1</v>
       </c>
       <c r="F38" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D38&gt;2,2,D38),$B$68:$B$74,1),MATCH(C38,$C$67:$K$67,1))+IF(D38&gt;2,ROUNDUP((D38-2)/0.5,0)*HLOOKUP(C38,$C$67:$K$75,9,FALSE),0)</f>
         <v>2281700</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E38,120%,100%)*F38</f>
         <v>2738040</v>
       </c>
       <c r="H38" s="19">
@@ -5347,15 +5642,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1">
       <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D39" s="18">
         <v>100</v>
@@ -5364,11 +5659,11 @@
         <v>1</v>
       </c>
       <c r="F39" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D39&gt;2,2,D39),$B$68:$B$74,1),MATCH(C39,$C$67:$K$67,1))+IF(D39&gt;2,ROUNDUP((D39-2)/0.5,0)*HLOOKUP(C39,$C$67:$K$75,9,FALSE),0)</f>
         <v>2239600</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E39,120%,100%)*F39</f>
         <v>2687520</v>
       </c>
       <c r="H39" s="19">
@@ -5378,15 +5673,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1">
       <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D40" s="18">
         <v>100</v>
@@ -5395,11 +5690,11 @@
         <v>1</v>
       </c>
       <c r="F40" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D40&gt;2,2,D40),$B$68:$B$74,1),MATCH(C40,$C$67:$K$67,1))+IF(D40&gt;2,ROUNDUP((D40-2)/0.5,0)*HLOOKUP(C40,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E40,120%,100%)*F40</f>
         <v>1159680</v>
       </c>
       <c r="H40" s="19">
@@ -5409,15 +5704,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1">
       <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D41" s="18">
         <v>100</v>
@@ -5426,11 +5721,11 @@
         <v>1</v>
       </c>
       <c r="F41" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D41&gt;2,2,D41),$B$68:$B$74,1),MATCH(C41,$C$67:$K$67,1))+IF(D41&gt;2,ROUNDUP((D41-2)/0.5,0)*HLOOKUP(C41,$C$67:$K$75,9,FALSE),0)</f>
         <v>2219500</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E41,120%,100%)*F41</f>
         <v>2663400</v>
       </c>
       <c r="H41" s="19">
@@ -5440,15 +5735,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1">
       <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D42" s="18">
         <v>100</v>
@@ -5457,11 +5752,11 @@
         <v>1</v>
       </c>
       <c r="F42" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D42&gt;2,2,D42),$B$68:$B$74,1),MATCH(C42,$C$67:$K$67,1))+IF(D42&gt;2,ROUNDUP((D42-2)/0.5,0)*HLOOKUP(C42,$C$67:$K$75,9,FALSE),0)</f>
         <v>2032200</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E42,120%,100%)*F42</f>
         <v>2438640</v>
       </c>
       <c r="H42" s="19">
@@ -5471,15 +5766,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1">
       <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D43" s="18">
         <v>100</v>
@@ -5488,11 +5783,11 @@
         <v>1</v>
       </c>
       <c r="F43" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D43&gt;2,2,D43),$B$68:$B$74,1),MATCH(C43,$C$67:$K$67,1))+IF(D43&gt;2,ROUNDUP((D43-2)/0.5,0)*HLOOKUP(C43,$C$67:$K$75,9,FALSE),0)</f>
         <v>2219500</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E43,120%,100%)*F43</f>
         <v>2663400</v>
       </c>
       <c r="H43" s="19">
@@ -5502,15 +5797,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1">
       <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D44" s="18">
         <v>100</v>
@@ -5519,11 +5814,11 @@
         <v>1</v>
       </c>
       <c r="F44" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D44&gt;2,2,D44),$B$68:$B$74,1),MATCH(C44,$C$67:$K$67,1))+IF(D44&gt;2,ROUNDUP((D44-2)/0.5,0)*HLOOKUP(C44,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E44,120%,100%)*F44</f>
         <v>1159680</v>
       </c>
       <c r="H44" s="19">
@@ -5533,15 +5828,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="12.75" customHeight="1">
       <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D45" s="18">
         <v>100</v>
@@ -5550,11 +5845,11 @@
         <v>1</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D45&gt;2,2,D45),$B$68:$B$74,1),MATCH(C45,$C$67:$K$67,1))+IF(D45&gt;2,ROUNDUP((D45-2)/0.5,0)*HLOOKUP(C45,$C$67:$K$75,9,FALSE),0)</f>
         <v>2219500</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E45,120%,100%)*F45</f>
         <v>2663400</v>
       </c>
       <c r="H45" s="19">
@@ -5564,15 +5859,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="12.75" customHeight="1">
       <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D46" s="18">
         <v>100</v>
@@ -5581,11 +5876,11 @@
         <v>1</v>
       </c>
       <c r="F46" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D46&gt;2,2,D46),$B$68:$B$74,1),MATCH(C46,$C$67:$K$67,1))+IF(D46&gt;2,ROUNDUP((D46-2)/0.5,0)*HLOOKUP(C46,$C$67:$K$75,9,FALSE),0)</f>
         <v>1675800</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E46,120%,100%)*F46</f>
         <v>2010960</v>
       </c>
       <c r="H46" s="19">
@@ -5595,15 +5890,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="12.75" customHeight="1">
       <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D47" s="18">
         <v>100</v>
@@ -5612,11 +5907,11 @@
         <v>1</v>
       </c>
       <c r="F47" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D47&gt;2,2,D47),$B$68:$B$74,1),MATCH(C47,$C$67:$K$67,1))+IF(D47&gt;2,ROUNDUP((D47-2)/0.5,0)*HLOOKUP(C47,$C$67:$K$75,9,FALSE),0)</f>
         <v>2239600</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E47,120%,100%)*F47</f>
         <v>2687520</v>
       </c>
       <c r="H47" s="19">
@@ -5626,15 +5921,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="12.75" customHeight="1">
       <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D48" s="18">
         <v>100</v>
@@ -5643,11 +5938,11 @@
         <v>1</v>
       </c>
       <c r="F48" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D48&gt;2,2,D48),$B$68:$B$74,1),MATCH(C48,$C$67:$K$67,1))+IF(D48&gt;2,ROUNDUP((D48-2)/0.5,0)*HLOOKUP(C48,$C$67:$K$75,9,FALSE),0)</f>
         <v>1675800</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E48,120%,100%)*F48</f>
         <v>2010960</v>
       </c>
       <c r="H48" s="19">
@@ -5657,15 +5952,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="12.75" customHeight="1">
       <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D49" s="18">
         <v>100</v>
@@ -5674,11 +5969,11 @@
         <v>1</v>
       </c>
       <c r="F49" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D49&gt;2,2,D49),$B$68:$B$74,1),MATCH(C49,$C$67:$K$67,1))+IF(D49&gt;2,ROUNDUP((D49-2)/0.5,0)*HLOOKUP(C49,$C$67:$K$75,9,FALSE),0)</f>
         <v>2032200</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E49,120%,100%)*F49</f>
         <v>2438640</v>
       </c>
       <c r="H49" s="19">
@@ -5688,15 +5983,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="12.75" customHeight="1">
       <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D50" s="18">
         <v>100</v>
@@ -5705,11 +6000,11 @@
         <v>1</v>
       </c>
       <c r="F50" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D50&gt;2,2,D50),$B$68:$B$74,1),MATCH(C50,$C$67:$K$67,1))+IF(D50&gt;2,ROUNDUP((D50-2)/0.5,0)*HLOOKUP(C50,$C$67:$K$75,9,FALSE),0)</f>
         <v>2239600</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E50,120%,100%)*F50</f>
         <v>2687520</v>
       </c>
       <c r="H50" s="19">
@@ -5719,15 +6014,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="12.75" customHeight="1">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D51" s="18">
         <v>100</v>
@@ -5736,11 +6031,11 @@
         <v>1</v>
       </c>
       <c r="F51" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D51&gt;2,2,D51),$B$68:$B$74,1),MATCH(C51,$C$67:$K$67,1))+IF(D51&gt;2,ROUNDUP((D51-2)/0.5,0)*HLOOKUP(C51,$C$67:$K$75,9,FALSE),0)</f>
         <v>2239600</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E51,120%,100%)*F51</f>
         <v>2687520</v>
       </c>
       <c r="H51" s="19">
@@ -5750,15 +6045,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="12.75" customHeight="1">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D52" s="18">
         <v>100</v>
@@ -5767,11 +6062,11 @@
         <v>1</v>
       </c>
       <c r="F52" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D52&gt;2,2,D52),$B$68:$B$74,1),MATCH(C52,$C$67:$K$67,1))+IF(D52&gt;2,ROUNDUP((D52-2)/0.5,0)*HLOOKUP(C52,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E52,120%,100%)*F52</f>
         <v>1159680</v>
       </c>
       <c r="H52" s="19">
@@ -5781,15 +6076,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="12.75" customHeight="1">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D53" s="18">
         <v>100</v>
@@ -5798,11 +6093,11 @@
         <v>1</v>
       </c>
       <c r="F53" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D53&gt;2,2,D53),$B$68:$B$74,1),MATCH(C53,$C$67:$K$67,1))+IF(D53&gt;2,ROUNDUP((D53-2)/0.5,0)*HLOOKUP(C53,$C$67:$K$75,9,FALSE),0)</f>
         <v>2281700</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E53,120%,100%)*F53</f>
         <v>2738040</v>
       </c>
       <c r="H53" s="19">
@@ -5812,15 +6107,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="12.75" customHeight="1">
       <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D54" s="18">
         <v>100</v>
@@ -5829,11 +6124,11 @@
         <v>1</v>
       </c>
       <c r="F54" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D54&gt;2,2,D54),$B$68:$B$74,1),MATCH(C54,$C$67:$K$67,1))+IF(D54&gt;2,ROUNDUP((D54-2)/0.5,0)*HLOOKUP(C54,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E54,120%,100%)*F54</f>
         <v>1159680</v>
       </c>
       <c r="H54" s="19">
@@ -5843,15 +6138,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="12.75" customHeight="1">
       <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D55" s="18">
         <v>100</v>
@@ -5860,11 +6155,11 @@
         <v>1</v>
       </c>
       <c r="F55" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D55&gt;2,2,D55),$B$68:$B$74,1),MATCH(C55,$C$67:$K$67,1))+IF(D55&gt;2,ROUNDUP((D55-2)/0.5,0)*HLOOKUP(C55,$C$67:$K$75,9,FALSE),0)</f>
         <v>2219500</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E55,120%,100%)*F55</f>
         <v>2663400</v>
       </c>
       <c r="H55" s="19">
@@ -5874,15 +6169,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="12.75" customHeight="1">
       <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D56" s="18">
         <v>100</v>
@@ -5891,11 +6186,11 @@
         <v>1</v>
       </c>
       <c r="F56" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D56&gt;2,2,D56),$B$68:$B$74,1),MATCH(C56,$C$67:$K$67,1))+IF(D56&gt;2,ROUNDUP((D56-2)/0.5,0)*HLOOKUP(C56,$C$67:$K$75,9,FALSE),0)</f>
         <v>2239600</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E56,120%,100%)*F56</f>
         <v>2687520</v>
       </c>
       <c r="H56" s="19">
@@ -5905,15 +6200,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="12.75" customHeight="1">
       <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D57" s="18">
         <v>100</v>
@@ -5922,11 +6217,11 @@
         <v>1</v>
       </c>
       <c r="F57" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D57&gt;2,2,D57),$B$68:$B$74,1),MATCH(C57,$C$67:$K$67,1))+IF(D57&gt;2,ROUNDUP((D57-2)/0.5,0)*HLOOKUP(C57,$C$67:$K$75,9,FALSE),0)</f>
         <v>2219500</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E57,120%,100%)*F57</f>
         <v>2663400</v>
       </c>
       <c r="H57" s="19">
@@ -5936,15 +6231,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="12.75" customHeight="1">
       <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D58" s="18">
         <v>100</v>
@@ -5953,11 +6248,11 @@
         <v>1</v>
       </c>
       <c r="F58" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D58&gt;2,2,D58),$B$68:$B$74,1),MATCH(C58,$C$67:$K$67,1))+IF(D58&gt;2,ROUNDUP((D58-2)/0.5,0)*HLOOKUP(C58,$C$67:$K$75,9,FALSE),0)</f>
         <v>1675800</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E58,120%,100%)*F58</f>
         <v>2010960</v>
       </c>
       <c r="H58" s="19">
@@ -5967,15 +6262,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="12.75" customHeight="1">
       <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D59" s="18">
         <v>100</v>
@@ -5984,11 +6279,11 @@
         <v>1</v>
       </c>
       <c r="F59" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D59&gt;2,2,D59),$B$68:$B$74,1),MATCH(C59,$C$67:$K$67,1))+IF(D59&gt;2,ROUNDUP((D59-2)/0.5,0)*HLOOKUP(C59,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E59,120%,100%)*F59</f>
         <v>1159680</v>
       </c>
       <c r="H59" s="19">
@@ -5998,15 +6293,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="12.75" customHeight="1">
       <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D60" s="18">
         <v>100</v>
@@ -6015,11 +6310,11 @@
         <v>1</v>
       </c>
       <c r="F60" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D60&gt;2,2,D60),$B$68:$B$74,1),MATCH(C60,$C$67:$K$67,1))+IF(D60&gt;2,ROUNDUP((D60-2)/0.5,0)*HLOOKUP(C60,$C$67:$K$75,9,FALSE),0)</f>
         <v>1067900</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E60,120%,100%)*F60</f>
         <v>1281480</v>
       </c>
       <c r="H60" s="19">
@@ -6029,15 +6324,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="12.75" customHeight="1">
       <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D61" s="18">
         <v>100</v>
@@ -6046,11 +6341,11 @@
         <v>1</v>
       </c>
       <c r="F61" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D61&gt;2,2,D61),$B$68:$B$74,1),MATCH(C61,$C$67:$K$67,1))+IF(D61&gt;2,ROUNDUP((D61-2)/0.5,0)*HLOOKUP(C61,$C$67:$K$75,9,FALSE),0)</f>
         <v>2281700</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E61,120%,100%)*F61</f>
         <v>2738040</v>
       </c>
       <c r="H61" s="19">
@@ -6060,15 +6355,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="12.75" customHeight="1">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D62" s="18">
         <v>100</v>
@@ -6077,11 +6372,11 @@
         <v>1</v>
       </c>
       <c r="F62" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D62&gt;2,2,D62),$B$68:$B$74,1),MATCH(C62,$C$67:$K$67,1))+IF(D62&gt;2,ROUNDUP((D62-2)/0.5,0)*HLOOKUP(C62,$C$67:$K$75,9,FALSE),0)</f>
         <v>966400</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E62,120%,100%)*F62</f>
         <v>1159680</v>
       </c>
       <c r="H62" s="19">
@@ -6091,15 +6386,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="12.75" customHeight="1">
       <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D63" s="18">
         <v>100</v>
@@ -6108,11 +6403,11 @@
         <v>1</v>
       </c>
       <c r="F63" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D63&gt;2,2,D63),$B$68:$B$74,1),MATCH(C63,$C$67:$K$67,1))+IF(D63&gt;2,ROUNDUP((D63-2)/0.5,0)*HLOOKUP(C63,$C$67:$K$75,9,FALSE),0)</f>
         <v>2219500</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E63,120%,100%)*F63</f>
         <v>2663400</v>
       </c>
       <c r="H63" s="19">
@@ -6122,15 +6417,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="12.75" customHeight="1">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D64" s="18">
         <v>100</v>
@@ -6139,11 +6434,11 @@
         <v>1</v>
       </c>
       <c r="F64" s="14">
-        <f t="shared" si="2"/>
+        <f ca="1">INDEX($C$68:$K$74,MATCH(IF(D64&gt;2,2,D64),$B$68:$B$74,1),MATCH(C64,$C$67:$K$67,1))+IF(D64&gt;2,ROUNDUP((D64-2)/0.5,0)*HLOOKUP(C64,$C$67:$K$75,9,FALSE),0)</f>
         <v>2239600</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="3"/>
+        <f ca="1">IF(E64,120%,100%)*F64</f>
         <v>2687520</v>
       </c>
       <c r="H64" s="19">
@@ -6153,39 +6448,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" ht="12.75" customHeight="1">
       <c r="B67" s="6" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="12.75" customHeight="1">
       <c r="B68" s="21">
         <v>0.05</v>
       </c>
@@ -6217,7 +6512,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" ht="12.75" customHeight="1">
       <c r="B69" s="21">
         <v>0.1</v>
       </c>
@@ -6249,7 +6544,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" ht="12.75" customHeight="1">
       <c r="B70" s="21">
         <v>0.25</v>
       </c>
@@ -6281,7 +6576,7 @@
         <v>33700</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" ht="12.75" customHeight="1">
       <c r="B71" s="21">
         <v>0.5</v>
       </c>
@@ -6313,7 +6608,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" ht="12.75" customHeight="1">
       <c r="B72" s="21">
         <v>1</v>
       </c>
@@ -6345,7 +6640,7 @@
         <v>60800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" ht="12.75" customHeight="1">
       <c r="B73" s="21">
         <v>1.5</v>
       </c>
@@ -6377,7 +6672,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" ht="12.75" customHeight="1">
       <c r="B74" s="21">
         <v>2</v>
       </c>
@@ -6409,9 +6704,9 @@
         <v>86500</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" ht="12.75" customHeight="1">
       <c r="B75" s="21" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="C75" s="14">
         <v>1800</v>
@@ -6442,20 +6737,21 @@
       </c>
     </row>
   </sheetData>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView workbookViewId="0" topLeftCell="A49">
+      <selection pane="topLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.571428571428571" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -6464,52 +6760,51 @@
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.5703125" style="1"/>
+    <col min="8" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.142857142857142" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.285714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.428571428571429" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.571428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="13" customFormat="1" spans="1:256" ht="12.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F2" s="21">
         <v>90</v>
@@ -6518,21 +6813,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="F3" s="21">
         <v>78</v>
@@ -6541,21 +6836,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F4" s="21">
         <v>26</v>
@@ -6564,21 +6859,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F5" s="21">
         <v>23</v>
@@ -6587,21 +6882,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F6" s="21">
         <v>97</v>
@@ -6610,21 +6905,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="F7" s="21">
         <v>16</v>
@@ -6633,21 +6928,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F8" s="21">
         <v>86</v>
@@ -6656,21 +6951,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F9" s="21">
         <v>55</v>
@@ -6679,21 +6974,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="F10" s="21">
         <v>75</v>
@@ -6702,21 +6997,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="F11" s="21">
         <v>67</v>
@@ -6725,21 +7020,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F12" s="21">
         <v>77</v>
@@ -6748,21 +7043,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F13" s="21">
         <v>98</v>
@@ -6771,21 +7066,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F14" s="21">
         <v>94</v>
@@ -6794,21 +7089,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F15" s="21">
         <v>21</v>
@@ -6817,21 +7112,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F16" s="21">
         <v>50</v>
@@ -6840,44 +7135,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="G17" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F18" s="21">
         <v>65</v>
@@ -6886,21 +7181,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F19" s="21">
         <v>32</v>
@@ -6909,21 +7204,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="F20" s="21">
         <v>76</v>
@@ -6932,21 +7227,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F21" s="21">
         <v>81</v>
@@ -6955,44 +7250,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G22" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F23" s="21">
         <v>20</v>
@@ -7001,21 +7296,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F24" s="21">
         <v>18</v>
@@ -7024,21 +7319,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="F25" s="22">
         <v>44848</v>
@@ -7047,44 +7342,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G26" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F27" s="21">
         <v>3</v>
@@ -7093,21 +7388,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F28" s="22">
         <v>44656</v>
@@ -7116,21 +7411,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F29" s="21">
         <v>95</v>
@@ -7139,44 +7434,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.75" customHeight="1">
       <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="G30" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12.75" customHeight="1">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="F31" s="21">
         <v>36</v>
@@ -7185,21 +7480,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12.75" customHeight="1">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="F32" s="21">
         <v>17</v>
@@ -7208,21 +7503,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12.75" customHeight="1">
       <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F33" s="21">
         <v>57</v>
@@ -7231,44 +7526,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12.75" customHeight="1">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G34" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12.75" customHeight="1">
       <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F35" s="21">
         <v>60</v>
@@ -7277,21 +7572,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.75" customHeight="1">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F36" s="21">
         <v>30</v>
@@ -7300,21 +7595,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12.75" customHeight="1">
       <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F37" s="21">
         <v>66</v>
@@ -7323,21 +7618,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12.75" customHeight="1">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F38" s="21">
         <v>25</v>
@@ -7346,21 +7641,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12.75" customHeight="1">
       <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F39" s="21">
         <v>31</v>
@@ -7369,44 +7664,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12.75" customHeight="1">
       <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="G40" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="12.75" customHeight="1">
       <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F41" s="21">
         <v>7</v>
@@ -7415,44 +7710,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="12.75" customHeight="1">
       <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>127</v>
-      </c>
       <c r="D42" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G42" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12.75" customHeight="1">
       <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F43" s="21">
         <v>8</v>
@@ -7461,21 +7756,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="12.75" customHeight="1">
       <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F44" s="21">
         <v>59</v>
@@ -7484,21 +7779,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="12.75" customHeight="1">
       <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="E45" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F45" s="21">
         <v>35</v>
@@ -7507,21 +7802,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="12.75" customHeight="1">
       <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F46" s="21">
         <v>56</v>
@@ -7530,21 +7825,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="12.75" customHeight="1">
       <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F47" s="21">
         <v>47</v>
@@ -7553,67 +7848,67 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="12.75" customHeight="1">
       <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="G48" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="12.75" customHeight="1">
       <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="G49" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="12.75" customHeight="1">
       <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F50" s="22">
         <v>44563</v>
@@ -7622,21 +7917,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="12.75" customHeight="1">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F51" s="21">
         <v>48</v>
@@ -7645,21 +7940,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="12.75" customHeight="1">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F52" s="21">
         <v>96</v>
@@ -7668,21 +7963,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="12.75" customHeight="1">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F53" s="21">
         <v>34</v>
@@ -7691,21 +7986,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="12.75" customHeight="1">
       <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F54" s="21">
         <v>80</v>
@@ -7714,21 +8009,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="12.75" customHeight="1">
       <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F55" s="21">
         <v>6</v>
@@ -7737,21 +8032,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="12.75" customHeight="1">
       <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F56" s="21">
         <v>24</v>
@@ -7760,44 +8055,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="12.75" customHeight="1">
       <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="G57" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="12.75" customHeight="1">
       <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F58" s="21">
         <v>49</v>
@@ -7806,21 +8101,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="12.75" customHeight="1">
       <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F59" s="21">
         <v>84</v>
@@ -7829,21 +8124,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="12.75" customHeight="1">
       <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F60" s="21">
         <v>87</v>
@@ -7852,21 +8147,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="12.75" customHeight="1">
       <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F61" s="21">
         <v>22</v>
@@ -7875,21 +8170,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="12.75" customHeight="1">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F62" s="21">
         <v>85</v>
@@ -7898,21 +8193,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="12.75" customHeight="1">
       <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F63" s="21">
         <v>15</v>
@@ -7921,21 +8216,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="12.75" customHeight="1">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F64" s="21">
         <v>33</v>
@@ -7944,60 +8239,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:6" ht="12.75" customHeight="1">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:6" ht="12.75" customHeight="1">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:6" ht="12.75" customHeight="1">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:6" ht="12.75" customHeight="1">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:6" ht="12.75" customHeight="1">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:6" ht="12.75" customHeight="1">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:6" ht="12.75" customHeight="1">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:6" ht="12.75" customHeight="1">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:6" ht="12.75" customHeight="1">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:6" ht="12.75" customHeight="1">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:6" ht="12.75" customHeight="1">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:6" ht="12.75" customHeight="1">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:6" ht="12.75" customHeight="1">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
   </sheetData>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait"/>
 </worksheet>
 </file>